--- a/Simulacion_MonteCarlo/escenarios_montecarlo/escenario_002.xlsx
+++ b/Simulacion_MonteCarlo/escenarios_montecarlo/escenario_002.xlsx
@@ -693,148 +693,148 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>14.94009219276394</v>
+        <v>25.11168210079282</v>
       </c>
       <c r="D2" t="n">
-        <v>18.32766728656312</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>6.43001806166424</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>23.92924255775073</v>
+        <v>30.68434811768251</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>68.53484689898201</v>
+        <v>27.16691788140198</v>
       </c>
       <c r="I2" t="n">
-        <v>11.90074896844377</v>
+        <v>36.91844770865868</v>
       </c>
       <c r="J2" t="n">
-        <v>21.90285641386336</v>
+        <v>175.3727433196163</v>
       </c>
       <c r="K2" t="n">
-        <v>4.725842095257224</v>
+        <v>30.72589016456526</v>
       </c>
       <c r="L2" t="n">
-        <v>74.55550878222076</v>
+        <v>22.08821067730296</v>
       </c>
       <c r="M2" t="n">
-        <v>70.94766921726438</v>
+        <v>71.55680335913328</v>
       </c>
       <c r="N2" t="n">
-        <v>83.26330165600126</v>
+        <v>39.06310265700135</v>
       </c>
       <c r="O2" t="n">
-        <v>155.3387983499738</v>
+        <v>22.39994385523207</v>
       </c>
       <c r="P2" t="n">
-        <v>38.91213824762334</v>
+        <v>16.4667035744877</v>
       </c>
       <c r="Q2" t="n">
-        <v>151.1506397210067</v>
+        <v>41.94833208529566</v>
       </c>
       <c r="R2" t="n">
-        <v>64.89403219466513</v>
+        <v>55.92214120099939</v>
       </c>
       <c r="S2" t="n">
-        <v>49.50082414824624</v>
+        <v>34.96035656905149</v>
       </c>
       <c r="T2" t="n">
-        <v>50.30696476937426</v>
+        <v>19.52887601213939</v>
       </c>
       <c r="U2" t="n">
-        <v>72.65150679814241</v>
+        <v>60.43279735870169</v>
       </c>
       <c r="V2" t="n">
-        <v>89.83414884846772</v>
+        <v>38.21992008118647</v>
       </c>
       <c r="W2" t="n">
-        <v>67.19142266098712</v>
+        <v>51.20963373061804</v>
       </c>
       <c r="X2" t="n">
-        <v>18.01813379313206</v>
+        <v>52.21703459542429</v>
       </c>
       <c r="Y2" t="n">
-        <v>8.855774821517691</v>
+        <v>54.21341279286106</v>
       </c>
       <c r="Z2" t="n">
-        <v>63.48867213976766</v>
+        <v>69.09865779587481</v>
       </c>
       <c r="AA2" t="n">
-        <v>61.83761316406363</v>
+        <v>74.79135068168272</v>
       </c>
       <c r="AB2" t="n">
-        <v>63.68329901133361</v>
+        <v>96.1690639901029</v>
       </c>
       <c r="AC2" t="n">
-        <v>100.8748842927289</v>
+        <v>127.9394744761058</v>
       </c>
       <c r="AD2" t="n">
-        <v>138.2067585108989</v>
+        <v>87.29220083765716</v>
       </c>
       <c r="AE2" t="n">
-        <v>174.9313080675668</v>
+        <v>86.86349490948385</v>
       </c>
       <c r="AF2" t="n">
-        <v>113.454909714538</v>
+        <v>135.7029800713889</v>
       </c>
       <c r="AG2" t="n">
-        <v>87.18220971971748</v>
+        <v>29.74144880161307</v>
       </c>
       <c r="AH2" t="n">
-        <v>53.62964631370987</v>
+        <v>124.8145481959571</v>
       </c>
       <c r="AI2" t="n">
-        <v>101.2407489732864</v>
+        <v>181.2399038119883</v>
       </c>
       <c r="AJ2" t="n">
-        <v>82.06378224861568</v>
+        <v>53.56416608321415</v>
       </c>
       <c r="AK2" t="n">
-        <v>91.75940301948762</v>
+        <v>102.2866093765043</v>
       </c>
       <c r="AL2" t="n">
-        <v>39.48807365845852</v>
+        <v>116.1896220577505</v>
       </c>
       <c r="AM2" t="n">
-        <v>51.62807986436901</v>
+        <v>33.80635533057495</v>
       </c>
       <c r="AN2" t="n">
-        <v>20.90720668539009</v>
+        <v>53.5522445404582</v>
       </c>
       <c r="AO2" t="n">
-        <v>38.53974269150842</v>
+        <v>33.76456069081905</v>
       </c>
       <c r="AP2" t="n">
-        <v>19.53521690773705</v>
+        <v>17.24314448746593</v>
       </c>
       <c r="AQ2" t="n">
-        <v>16.25274572696854</v>
+        <v>20.21112147313335</v>
       </c>
       <c r="AR2" t="n">
-        <v>17.16298115138047</v>
+        <v>27.2427001080533</v>
       </c>
       <c r="AS2" t="n">
-        <v>24.3602592006589</v>
+        <v>21.52114396826281</v>
       </c>
       <c r="AT2" t="n">
-        <v>14.93712078427071</v>
+        <v>18.48125482739549</v>
       </c>
       <c r="AU2" t="n">
-        <v>19.63189992785184</v>
+        <v>13.99783528053125</v>
       </c>
       <c r="AV2" t="n">
-        <v>23.03625026876242</v>
+        <v>16.62529817178637</v>
       </c>
       <c r="AW2" t="n">
-        <v>41.40302491771752</v>
+        <v>32.26050515318543</v>
       </c>
       <c r="AX2" t="n">
-        <v>27.32297614812806</v>
+        <v>9.574271123646929</v>
       </c>
     </row>
     <row r="3">
@@ -845,148 +845,148 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>3.097865038793833</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>3.959006623560091</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>2.091496441844868</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>8.979784340045017</v>
+        <v>3.92225170656962</v>
       </c>
       <c r="G3" t="n">
-        <v>2.031884696294949</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>3.178045899815398</v>
+        <v>3.586362926607411</v>
       </c>
       <c r="I3" t="n">
-        <v>5.932037215314532</v>
+        <v>3.938012516905474</v>
       </c>
       <c r="J3" t="n">
-        <v>2.945928013853798</v>
+        <v>5.111407672396338</v>
       </c>
       <c r="K3" t="n">
-        <v>1.65246191481631</v>
+        <v>9.108928773159622</v>
       </c>
       <c r="L3" t="n">
-        <v>1.208621809391892</v>
+        <v>2.07401959327282</v>
       </c>
       <c r="M3" t="n">
-        <v>4.535375383546042</v>
+        <v>10.06372480141852</v>
       </c>
       <c r="N3" t="n">
-        <v>2.821629569871737</v>
+        <v>1.371446650082352</v>
       </c>
       <c r="O3" t="n">
-        <v>1.483410631219042</v>
+        <v>4.188788561954903</v>
       </c>
       <c r="P3" t="n">
-        <v>10.8099895004778</v>
+        <v>2.522264979745824</v>
       </c>
       <c r="Q3" t="n">
-        <v>6.664570779598467</v>
+        <v>3.639889671086198</v>
       </c>
       <c r="R3" t="n">
-        <v>3.413050228294042</v>
+        <v>8.530346310117194</v>
       </c>
       <c r="S3" t="n">
-        <v>0.3571641342484356</v>
+        <v>9.286089023533188</v>
       </c>
       <c r="T3" t="n">
-        <v>2.723530262039465</v>
+        <v>4.630178397489766</v>
       </c>
       <c r="U3" t="n">
-        <v>4.309094809478421</v>
+        <v>2.741897200464801</v>
       </c>
       <c r="V3" t="n">
-        <v>3.146754926498074</v>
+        <v>4.701394531755485</v>
       </c>
       <c r="W3" t="n">
-        <v>3.852226998760651</v>
+        <v>3.540792071267883</v>
       </c>
       <c r="X3" t="n">
-        <v>1.779658233357731</v>
+        <v>3.944098106979966</v>
       </c>
       <c r="Y3" t="n">
-        <v>2.395057941496405</v>
+        <v>6.390758391360711</v>
       </c>
       <c r="Z3" t="n">
-        <v>5.43592623687329</v>
+        <v>2.803761055816253</v>
       </c>
       <c r="AA3" t="n">
-        <v>3.274608003608826</v>
+        <v>3.724745735956246</v>
       </c>
       <c r="AB3" t="n">
-        <v>4.99159514078735</v>
+        <v>4.660193762242526</v>
       </c>
       <c r="AC3" t="n">
-        <v>4.648338122267436</v>
+        <v>5.137263173031704</v>
       </c>
       <c r="AD3" t="n">
-        <v>2.84283959717884</v>
+        <v>2.862360389332292</v>
       </c>
       <c r="AE3" t="n">
-        <v>8.624961119929612</v>
+        <v>12.6927017826202</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.530228211792411</v>
+        <v>6.581345636978952</v>
       </c>
       <c r="AG3" t="n">
-        <v>5.491770110818242</v>
+        <v>4.311282084437023</v>
       </c>
       <c r="AH3" t="n">
-        <v>6.469946981729979</v>
+        <v>7.058660571667914</v>
       </c>
       <c r="AI3" t="n">
-        <v>7.363502868054455</v>
+        <v>4.043453408959447</v>
       </c>
       <c r="AJ3" t="n">
-        <v>5.754225346403214</v>
+        <v>2.665269467639693</v>
       </c>
       <c r="AK3" t="n">
-        <v>6.935913691594795</v>
+        <v>5.554253833633484</v>
       </c>
       <c r="AL3" t="n">
-        <v>4.50191416426435</v>
+        <v>3.66682081119952</v>
       </c>
       <c r="AM3" t="n">
-        <v>3.821750805188422</v>
+        <v>3.476465363191874</v>
       </c>
       <c r="AN3" t="n">
-        <v>4.412198292741395</v>
+        <v>5.78566704142142</v>
       </c>
       <c r="AO3" t="n">
-        <v>3.550239562500585</v>
+        <v>3.227195154239691</v>
       </c>
       <c r="AP3" t="n">
-        <v>4.028357717055838</v>
+        <v>0</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0.4929143682617191</v>
+        <v>6.527531274435352</v>
       </c>
       <c r="AR3" t="n">
-        <v>3.387554022382757</v>
+        <v>4.263576203498303</v>
       </c>
       <c r="AS3" t="n">
-        <v>1.868598502267538</v>
+        <v>4.183087174157661</v>
       </c>
       <c r="AT3" t="n">
-        <v>5.971108347063543</v>
+        <v>0.9667143609638078</v>
       </c>
       <c r="AU3" t="n">
-        <v>5.1521404875398</v>
+        <v>2.159624272713829</v>
       </c>
       <c r="AV3" t="n">
-        <v>2.854990403887992</v>
+        <v>3.111098487639949</v>
       </c>
       <c r="AW3" t="n">
-        <v>3.61954265270349</v>
+        <v>0</v>
       </c>
       <c r="AX3" t="n">
-        <v>3.314824240833645</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -997,148 +997,148 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>18.16667507912894</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>9.083693659725624</v>
+        <v>35.37677406953014</v>
       </c>
       <c r="E4" t="n">
-        <v>12.0997320534004</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>8.457561032668078</v>
+        <v>6.192387162894273</v>
       </c>
       <c r="G4" t="n">
-        <v>8.491190947714088</v>
+        <v>15.09777038640089</v>
       </c>
       <c r="H4" t="n">
-        <v>91.23175145228343</v>
+        <v>20.84177606601166</v>
       </c>
       <c r="I4" t="n">
-        <v>10.51464041365372</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>108.7559154986137</v>
       </c>
       <c r="K4" t="n">
-        <v>23.1145948374489</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>47.46190149978219</v>
+        <v>32.80804732455285</v>
       </c>
       <c r="M4" t="n">
-        <v>67.89096349365644</v>
+        <v>129.2594852337095</v>
       </c>
       <c r="N4" t="n">
-        <v>31.66315828023038</v>
+        <v>104.5471705009044</v>
       </c>
       <c r="O4" t="n">
-        <v>0.008306565707563607</v>
+        <v>92.25769277069693</v>
       </c>
       <c r="P4" t="n">
-        <v>68.20140417333248</v>
+        <v>51.0387858362345</v>
       </c>
       <c r="Q4" t="n">
-        <v>230.1516598852857</v>
+        <v>163.8176415737177</v>
       </c>
       <c r="R4" t="n">
-        <v>94.69531385006405</v>
+        <v>164.436976106903</v>
       </c>
       <c r="S4" t="n">
-        <v>30.77597430871433</v>
+        <v>48.27710439477266</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>44.77659841156976</v>
       </c>
       <c r="U4" t="n">
-        <v>50.45918982957213</v>
+        <v>54.52114497171232</v>
       </c>
       <c r="V4" t="n">
-        <v>61.12718616550275</v>
+        <v>43.67629035822149</v>
       </c>
       <c r="W4" t="n">
-        <v>43.37733642409941</v>
+        <v>45.72837431708083</v>
       </c>
       <c r="X4" t="n">
-        <v>76.241977338883</v>
+        <v>94.56207615630284</v>
       </c>
       <c r="Y4" t="n">
-        <v>44.13061503033487</v>
+        <v>194.7576892006834</v>
       </c>
       <c r="Z4" t="n">
-        <v>59.36614630108306</v>
+        <v>50.70823338811636</v>
       </c>
       <c r="AA4" t="n">
-        <v>46.29406617346667</v>
+        <v>84.80132046783233</v>
       </c>
       <c r="AB4" t="n">
-        <v>69.31109215053715</v>
+        <v>90.31051965464017</v>
       </c>
       <c r="AC4" t="n">
-        <v>65.65952876270089</v>
+        <v>44.32510867067263</v>
       </c>
       <c r="AD4" t="n">
-        <v>42.7551997881358</v>
+        <v>77.31505511602565</v>
       </c>
       <c r="AE4" t="n">
-        <v>97.51234260630686</v>
+        <v>41.51635864001397</v>
       </c>
       <c r="AF4" t="n">
-        <v>65.50389162183609</v>
+        <v>59.19849191094825</v>
       </c>
       <c r="AG4" t="n">
-        <v>64.45326092675434</v>
+        <v>98.63337982920766</v>
       </c>
       <c r="AH4" t="n">
-        <v>58.94739821683167</v>
+        <v>102.790846201243</v>
       </c>
       <c r="AI4" t="n">
-        <v>28.19224264926103</v>
+        <v>24.02304669548644</v>
       </c>
       <c r="AJ4" t="n">
-        <v>15.83604164710784</v>
+        <v>24.19617793755338</v>
       </c>
       <c r="AK4" t="n">
-        <v>36.86895280423788</v>
+        <v>67.57652619911123</v>
       </c>
       <c r="AL4" t="n">
-        <v>15.71514199992387</v>
+        <v>52.6092245695538</v>
       </c>
       <c r="AM4" t="n">
-        <v>10.94645978596524</v>
+        <v>43.09629696852945</v>
       </c>
       <c r="AN4" t="n">
-        <v>18.77908859352201</v>
+        <v>18.26794998751182</v>
       </c>
       <c r="AO4" t="n">
-        <v>31.14521520716718</v>
+        <v>18.48972421492862</v>
       </c>
       <c r="AP4" t="n">
-        <v>23.85880023224738</v>
+        <v>14.94491093204992</v>
       </c>
       <c r="AQ4" t="n">
-        <v>14.29736669648599</v>
+        <v>27.05861849020179</v>
       </c>
       <c r="AR4" t="n">
-        <v>11.21716082240177</v>
+        <v>12.55705954584055</v>
       </c>
       <c r="AS4" t="n">
-        <v>26.03235903840497</v>
+        <v>17.44221451113869</v>
       </c>
       <c r="AT4" t="n">
-        <v>8.254961614465824</v>
+        <v>4.694795977782553</v>
       </c>
       <c r="AU4" t="n">
-        <v>7.297827530167085</v>
+        <v>7.841284596547851</v>
       </c>
       <c r="AV4" t="n">
-        <v>11.46889249807279</v>
+        <v>7.694118408270659</v>
       </c>
       <c r="AW4" t="n">
-        <v>11.79766578987077</v>
+        <v>10.14626937702383</v>
       </c>
       <c r="AX4" t="n">
-        <v>11.69854542741597</v>
+        <v>10.00627984967124</v>
       </c>
     </row>
     <row r="5">
@@ -1149,148 +1149,148 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>16.11458106736148</v>
+        <v>24.51067476399549</v>
       </c>
       <c r="D5" t="n">
-        <v>16.89344608542402</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>14.86247946022488</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>22.75935927717148</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>20.13381118824789</v>
+        <v>30.08276196792695</v>
       </c>
       <c r="H5" t="n">
-        <v>6.509385968715129</v>
+        <v>32.46550047400106</v>
       </c>
       <c r="I5" t="n">
-        <v>45.86969658766117</v>
+        <v>32.15947393214388</v>
       </c>
       <c r="J5" t="n">
-        <v>15.40753915739249</v>
+        <v>7.090867088198326</v>
       </c>
       <c r="K5" t="n">
-        <v>20.19887557649897</v>
+        <v>4.240195693563228</v>
       </c>
       <c r="L5" t="n">
-        <v>28.36201571168912</v>
+        <v>29.69275693693471</v>
       </c>
       <c r="M5" t="n">
-        <v>12.35616927722775</v>
+        <v>41.79469933849927</v>
       </c>
       <c r="N5" t="n">
-        <v>8.934205451663935</v>
+        <v>54.12803179727854</v>
       </c>
       <c r="O5" t="n">
-        <v>24.25595620399146</v>
+        <v>38.11497466369261</v>
       </c>
       <c r="P5" t="n">
-        <v>58.51345564172622</v>
+        <v>66.21616502535315</v>
       </c>
       <c r="Q5" t="n">
-        <v>4.128738036173187</v>
+        <v>20.41428995235981</v>
       </c>
       <c r="R5" t="n">
-        <v>66.24514938128657</v>
+        <v>47.98710293608991</v>
       </c>
       <c r="S5" t="n">
-        <v>49.53587054409751</v>
+        <v>148.2719032159371</v>
       </c>
       <c r="T5" t="n">
-        <v>74.76157870663792</v>
+        <v>37.18910482869964</v>
       </c>
       <c r="U5" t="n">
-        <v>34.45053739287497</v>
+        <v>24.95978501938447</v>
       </c>
       <c r="V5" t="n">
-        <v>44.50898760425445</v>
+        <v>35.93797988089126</v>
       </c>
       <c r="W5" t="n">
-        <v>52.10195756889996</v>
+        <v>31.47821489424455</v>
       </c>
       <c r="X5" t="n">
-        <v>203.1186733281455</v>
+        <v>38.77940179122454</v>
       </c>
       <c r="Y5" t="n">
-        <v>91.41826539938023</v>
+        <v>71.95744361167176</v>
       </c>
       <c r="Z5" t="n">
-        <v>26.22082612708122</v>
+        <v>60.26125645785493</v>
       </c>
       <c r="AA5" t="n">
-        <v>37.47458580816016</v>
+        <v>84.46529509985896</v>
       </c>
       <c r="AB5" t="n">
-        <v>71.46346468680076</v>
+        <v>10.98368380531293</v>
       </c>
       <c r="AC5" t="n">
-        <v>33.6200497145789</v>
+        <v>13.0539699625747</v>
       </c>
       <c r="AD5" t="n">
-        <v>45.95731821956838</v>
+        <v>162.1010191607921</v>
       </c>
       <c r="AE5" t="n">
-        <v>21.41469082357014</v>
+        <v>32.16278247358246</v>
       </c>
       <c r="AF5" t="n">
-        <v>0</v>
+        <v>13.78361293632697</v>
       </c>
       <c r="AG5" t="n">
-        <v>21.41518520548967</v>
+        <v>115.2631139910709</v>
       </c>
       <c r="AH5" t="n">
-        <v>2.650266516281511</v>
+        <v>22.89531055513728</v>
       </c>
       <c r="AI5" t="n">
-        <v>54.77330157056127</v>
+        <v>2.70206842062863</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0</v>
+        <v>63.08002599924438</v>
       </c>
       <c r="AK5" t="n">
-        <v>20.35198208274939</v>
+        <v>7.916018580127767</v>
       </c>
       <c r="AL5" t="n">
-        <v>32.56020606361338</v>
+        <v>32.41923865473245</v>
       </c>
       <c r="AM5" t="n">
-        <v>29.18045350750842</v>
+        <v>34.66307451309599</v>
       </c>
       <c r="AN5" t="n">
-        <v>9.320459348043126</v>
+        <v>26.65476959511867</v>
       </c>
       <c r="AO5" t="n">
-        <v>8.172177206848932</v>
+        <v>25.40759931029295</v>
       </c>
       <c r="AP5" t="n">
-        <v>20.2754790166777</v>
+        <v>39.59712815638419</v>
       </c>
       <c r="AQ5" t="n">
-        <v>26.01802140072503</v>
+        <v>31.21985312136497</v>
       </c>
       <c r="AR5" t="n">
-        <v>25.76752697968215</v>
+        <v>20.25415756325385</v>
       </c>
       <c r="AS5" t="n">
-        <v>18.37176732280163</v>
+        <v>37.57028665027276</v>
       </c>
       <c r="AT5" t="n">
-        <v>31.65695585271077</v>
+        <v>28.22934422089898</v>
       </c>
       <c r="AU5" t="n">
-        <v>24.43352650787701</v>
+        <v>12.12701978218652</v>
       </c>
       <c r="AV5" t="n">
-        <v>22.19837440934792</v>
+        <v>23.54636906421769</v>
       </c>
       <c r="AW5" t="n">
-        <v>24.69795525614386</v>
+        <v>25.26518571936898</v>
       </c>
       <c r="AX5" t="n">
-        <v>29.87467880913189</v>
+        <v>5.513305526457818</v>
       </c>
     </row>
     <row r="6">
@@ -1301,148 +1301,148 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>2.841907936672697</v>
+        <v>3.621182786628731</v>
       </c>
       <c r="D6" t="n">
-        <v>7.279682048801617</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>30.79960084960006</v>
+        <v>36.19773704007518</v>
       </c>
       <c r="F6" t="n">
-        <v>12.56315678089488</v>
+        <v>2.185409642154589</v>
       </c>
       <c r="G6" t="n">
-        <v>14.60901259116497</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>7.335754176033033</v>
+        <v>5.862684284952923</v>
       </c>
       <c r="I6" t="n">
-        <v>15.4950128570638</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>13.71078069558255</v>
+        <v>6.332686352737507</v>
       </c>
       <c r="K6" t="n">
-        <v>33.82185755892204</v>
+        <v>12.50789222926592</v>
       </c>
       <c r="L6" t="n">
-        <v>10.59199970636496</v>
+        <v>12.90472620019911</v>
       </c>
       <c r="M6" t="n">
-        <v>30.16689936633137</v>
+        <v>12.36813761592124</v>
       </c>
       <c r="N6" t="n">
-        <v>13.23486416642663</v>
+        <v>48.78390292857902</v>
       </c>
       <c r="O6" t="n">
-        <v>14.43974686161809</v>
+        <v>34.47543883256296</v>
       </c>
       <c r="P6" t="n">
-        <v>24.82562058343846</v>
+        <v>14.97089477908561</v>
       </c>
       <c r="Q6" t="n">
-        <v>24.37295885583992</v>
+        <v>54.15214157405002</v>
       </c>
       <c r="R6" t="n">
-        <v>34.34561652732986</v>
+        <v>49.313369919522</v>
       </c>
       <c r="S6" t="n">
-        <v>1.308619357044062</v>
+        <v>29.39707010690388</v>
       </c>
       <c r="T6" t="n">
-        <v>39.14338752069194</v>
+        <v>20.53059217201825</v>
       </c>
       <c r="U6" t="n">
-        <v>16.41163085233494</v>
+        <v>19.35742471214386</v>
       </c>
       <c r="V6" t="n">
-        <v>28.71297148930721</v>
+        <v>28.82432797299919</v>
       </c>
       <c r="W6" t="n">
-        <v>15.41839876969191</v>
+        <v>13.544603020683</v>
       </c>
       <c r="X6" t="n">
-        <v>87.19557278731095</v>
+        <v>45.11625344207732</v>
       </c>
       <c r="Y6" t="n">
-        <v>21.30291209873992</v>
+        <v>17.51731850605377</v>
       </c>
       <c r="Z6" t="n">
-        <v>16.45103572230114</v>
+        <v>6.3272948713402</v>
       </c>
       <c r="AA6" t="n">
-        <v>10.44324507660611</v>
+        <v>13.12940289739414</v>
       </c>
       <c r="AB6" t="n">
-        <v>9.336502926758305</v>
+        <v>6.498206039471857</v>
       </c>
       <c r="AC6" t="n">
-        <v>15.66223527264953</v>
+        <v>14.5557683122396</v>
       </c>
       <c r="AD6" t="n">
-        <v>18.93840816492877</v>
+        <v>17.53772422721137</v>
       </c>
       <c r="AE6" t="n">
-        <v>28.32724984185941</v>
+        <v>30.87418512217469</v>
       </c>
       <c r="AF6" t="n">
-        <v>21.82590685511193</v>
+        <v>9.343660467962115</v>
       </c>
       <c r="AG6" t="n">
-        <v>15.44209046146866</v>
+        <v>5.29659479232314</v>
       </c>
       <c r="AH6" t="n">
-        <v>22.34062534958952</v>
+        <v>8.083318074181022</v>
       </c>
       <c r="AI6" t="n">
-        <v>8.366933395551678</v>
+        <v>9.220184445518038</v>
       </c>
       <c r="AJ6" t="n">
-        <v>3.151033245472054</v>
+        <v>1.403857264635588</v>
       </c>
       <c r="AK6" t="n">
-        <v>0.9852490512912748</v>
+        <v>11.03765617027897</v>
       </c>
       <c r="AL6" t="n">
-        <v>7.966957871698917</v>
+        <v>6.292890295531523</v>
       </c>
       <c r="AM6" t="n">
-        <v>5.949725322482344</v>
+        <v>4.670583733765153</v>
       </c>
       <c r="AN6" t="n">
-        <v>10.25647306245327</v>
+        <v>3.160489941647687</v>
       </c>
       <c r="AO6" t="n">
-        <v>2.994413080594018</v>
+        <v>6.808741808456654</v>
       </c>
       <c r="AP6" t="n">
-        <v>4.94358619401919</v>
+        <v>1.786529560818937</v>
       </c>
       <c r="AQ6" t="n">
-        <v>3.372416438517869</v>
+        <v>6.958719897755749</v>
       </c>
       <c r="AR6" t="n">
-        <v>7.080264861511262</v>
+        <v>1.516763884422335</v>
       </c>
       <c r="AS6" t="n">
-        <v>3.093039363563448</v>
+        <v>3.544426091783074</v>
       </c>
       <c r="AT6" t="n">
-        <v>0.612203232602094</v>
+        <v>0.3786589047961998</v>
       </c>
       <c r="AU6" t="n">
-        <v>2.742895316482018</v>
+        <v>0.2386576681355707</v>
       </c>
       <c r="AV6" t="n">
-        <v>0.1205436303184243</v>
+        <v>2.118791767172218</v>
       </c>
       <c r="AW6" t="n">
-        <v>2.275938211047695</v>
+        <v>0</v>
       </c>
       <c r="AX6" t="n">
-        <v>2.168305003524908</v>
+        <v>4.399057962365832</v>
       </c>
     </row>
     <row r="7">
@@ -1453,148 +1453,148 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>12.5130744507985</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>20.00425125170557</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>27.2421617074085</v>
+        <v>12.92988812583527</v>
       </c>
       <c r="F7" t="n">
-        <v>34.3994968911245</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>7.814552988634136</v>
+        <v>15.39366193075949</v>
       </c>
       <c r="H7" t="n">
-        <v>35.44044557177271</v>
+        <v>41.26740273822769</v>
       </c>
       <c r="I7" t="n">
-        <v>27.46097019740104</v>
+        <v>61.13883744640278</v>
       </c>
       <c r="J7" t="n">
-        <v>10.30972783112986</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>38.68159523151344</v>
+        <v>28.07839383578079</v>
       </c>
       <c r="L7" t="n">
-        <v>64.21362533705808</v>
+        <v>52.74914639192404</v>
       </c>
       <c r="M7" t="n">
-        <v>11.7732898502306</v>
+        <v>63.51346635668163</v>
       </c>
       <c r="N7" t="n">
-        <v>138.8249751938934</v>
+        <v>78.31950716688114</v>
       </c>
       <c r="O7" t="n">
-        <v>15.3050362737553</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>43.97624590069118</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>27.25963067427479</v>
+        <v>25.0353999494552</v>
       </c>
       <c r="R7" t="n">
-        <v>9.506136097798461</v>
+        <v>39.94344306925513</v>
       </c>
       <c r="S7" t="n">
-        <v>41.45009808855136</v>
+        <v>49.88257777687585</v>
       </c>
       <c r="T7" t="n">
-        <v>39.93319909504924</v>
+        <v>61.47749177369049</v>
       </c>
       <c r="U7" t="n">
-        <v>22.88056852638079</v>
+        <v>74.76430092750213</v>
       </c>
       <c r="V7" t="n">
-        <v>25.33614918234485</v>
+        <v>36.06579771161736</v>
       </c>
       <c r="W7" t="n">
-        <v>7.372270426463638</v>
+        <v>14.7427270727146</v>
       </c>
       <c r="X7" t="n">
-        <v>26.94239605950387</v>
+        <v>20.8398506676732</v>
       </c>
       <c r="Y7" t="n">
-        <v>15.33773957705033</v>
+        <v>19.51473457235036</v>
       </c>
       <c r="Z7" t="n">
-        <v>14.55586273865507</v>
+        <v>19.3047029704183</v>
       </c>
       <c r="AA7" t="n">
-        <v>15.09301522645845</v>
+        <v>7.699007565426654</v>
       </c>
       <c r="AB7" t="n">
-        <v>16.83117389654503</v>
+        <v>4.723463993077865</v>
       </c>
       <c r="AC7" t="n">
-        <v>6.690484911280496</v>
+        <v>12.8489603304464</v>
       </c>
       <c r="AD7" t="n">
-        <v>17.71970153393378</v>
+        <v>12.49375454727007</v>
       </c>
       <c r="AE7" t="n">
-        <v>5.4415641557895</v>
+        <v>2.521569141026731</v>
       </c>
       <c r="AF7" t="n">
-        <v>5.342238761968789</v>
+        <v>5.269538743116069</v>
       </c>
       <c r="AG7" t="n">
-        <v>11.49274889081961</v>
+        <v>8.507069108561506</v>
       </c>
       <c r="AH7" t="n">
-        <v>0</v>
+        <v>7.102984025977195</v>
       </c>
       <c r="AI7" t="n">
-        <v>21.66936143899846</v>
+        <v>3.202226281523807</v>
       </c>
       <c r="AJ7" t="n">
-        <v>12.72259855104453</v>
+        <v>20.86467777961356</v>
       </c>
       <c r="AK7" t="n">
-        <v>11.96474164298625</v>
+        <v>2.167144045633289</v>
       </c>
       <c r="AL7" t="n">
-        <v>27.30285200924393</v>
+        <v>21.42781129974233</v>
       </c>
       <c r="AM7" t="n">
-        <v>5.648739060501685</v>
+        <v>69.0230543242577</v>
       </c>
       <c r="AN7" t="n">
-        <v>24.77722774763546</v>
+        <v>16.75530338787233</v>
       </c>
       <c r="AO7" t="n">
-        <v>7.909226918272864</v>
+        <v>3.122785435161227</v>
       </c>
       <c r="AP7" t="n">
-        <v>7.205767035328925</v>
+        <v>4.468704547538477</v>
       </c>
       <c r="AQ7" t="n">
-        <v>4.948867615617922</v>
+        <v>2.536895143234338</v>
       </c>
       <c r="AR7" t="n">
-        <v>13.96196745746429</v>
+        <v>10.39003611538776</v>
       </c>
       <c r="AS7" t="n">
-        <v>9.486105762480889</v>
+        <v>16.1802421258546</v>
       </c>
       <c r="AT7" t="n">
-        <v>0.09557600451880033</v>
+        <v>4.307133203622943</v>
       </c>
       <c r="AU7" t="n">
-        <v>13.35609663955451</v>
+        <v>3.783056447328498</v>
       </c>
       <c r="AV7" t="n">
-        <v>16.0131163576737</v>
+        <v>14.33346451813145</v>
       </c>
       <c r="AW7" t="n">
-        <v>5.506861357262544</v>
+        <v>3.181892652230055</v>
       </c>
       <c r="AX7" t="n">
-        <v>15.56751547758828</v>
+        <v>17.19192006598519</v>
       </c>
     </row>
     <row r="8">
@@ -1605,148 +1605,148 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>23.5135625244957</v>
+        <v>19.57963962939395</v>
       </c>
       <c r="D8" t="n">
-        <v>7.141079146704774</v>
+        <v>76.39512533100236</v>
       </c>
       <c r="E8" t="n">
-        <v>19.21840872447532</v>
+        <v>123.0307475503317</v>
       </c>
       <c r="F8" t="n">
-        <v>14.59166911934084</v>
+        <v>53.81339056890418</v>
       </c>
       <c r="G8" t="n">
-        <v>1.258561652851588</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>39.990505741226</v>
+        <v>62.90687946524496</v>
       </c>
       <c r="I8" t="n">
-        <v>89.46081843271129</v>
+        <v>32.39511139751311</v>
       </c>
       <c r="J8" t="n">
-        <v>0.3693639423913737</v>
+        <v>56.04709097237382</v>
       </c>
       <c r="K8" t="n">
-        <v>177.716774630917</v>
+        <v>26.76828643769727</v>
       </c>
       <c r="L8" t="n">
-        <v>31.63407749985934</v>
+        <v>22.35833332034199</v>
       </c>
       <c r="M8" t="n">
-        <v>42.23464956569597</v>
+        <v>26.30323759944297</v>
       </c>
       <c r="N8" t="n">
-        <v>79.90801469916642</v>
+        <v>165.7200531778177</v>
       </c>
       <c r="O8" t="n">
-        <v>40.95060598884177</v>
+        <v>75.85605852653349</v>
       </c>
       <c r="P8" t="n">
-        <v>35.55016233589255</v>
+        <v>201.3647784303041</v>
       </c>
       <c r="Q8" t="n">
-        <v>14.1745485010061</v>
+        <v>39.4847740218221</v>
       </c>
       <c r="R8" t="n">
-        <v>63.98212167259513</v>
+        <v>57.68388698630696</v>
       </c>
       <c r="S8" t="n">
-        <v>49.75827028565687</v>
+        <v>96.69400728866957</v>
       </c>
       <c r="T8" t="n">
-        <v>74.97827709530556</v>
+        <v>66.0808977980618</v>
       </c>
       <c r="U8" t="n">
-        <v>40.53946025195818</v>
+        <v>99.71691782703455</v>
       </c>
       <c r="V8" t="n">
-        <v>89.1509306067443</v>
+        <v>67.85787002803823</v>
       </c>
       <c r="W8" t="n">
-        <v>100.1980515425404</v>
+        <v>40.91138689828333</v>
       </c>
       <c r="X8" t="n">
-        <v>154.8259795049699</v>
+        <v>116.1972678489444</v>
       </c>
       <c r="Y8" t="n">
-        <v>76.76607548902709</v>
+        <v>49.54862894148178</v>
       </c>
       <c r="Z8" t="n">
-        <v>174.9397958525087</v>
+        <v>66.33230758507264</v>
       </c>
       <c r="AA8" t="n">
-        <v>83.13310867619359</v>
+        <v>72.66731576808135</v>
       </c>
       <c r="AB8" t="n">
-        <v>67.9245880334752</v>
+        <v>66.54299621205782</v>
       </c>
       <c r="AC8" t="n">
-        <v>108.4965978200232</v>
+        <v>77.51994426761144</v>
       </c>
       <c r="AD8" t="n">
-        <v>157.6726396446939</v>
+        <v>85.50344044000052</v>
       </c>
       <c r="AE8" t="n">
-        <v>119.774907653361</v>
+        <v>100.937577796674</v>
       </c>
       <c r="AF8" t="n">
-        <v>100.2349386504934</v>
+        <v>74.12721194961068</v>
       </c>
       <c r="AG8" t="n">
-        <v>151.7061923462845</v>
+        <v>112.9068674478687</v>
       </c>
       <c r="AH8" t="n">
-        <v>72.35469940628386</v>
+        <v>36.55467873825744</v>
       </c>
       <c r="AI8" t="n">
-        <v>66.91784631831703</v>
+        <v>99.86969873442331</v>
       </c>
       <c r="AJ8" t="n">
-        <v>70.33812898378497</v>
+        <v>156.55407110857</v>
       </c>
       <c r="AK8" t="n">
-        <v>51.38786205469364</v>
+        <v>30.49402770140547</v>
       </c>
       <c r="AL8" t="n">
-        <v>27.49680472925789</v>
+        <v>26.77761408195542</v>
       </c>
       <c r="AM8" t="n">
-        <v>41.58848938158969</v>
+        <v>42.36147245763972</v>
       </c>
       <c r="AN8" t="n">
-        <v>46.40920528166619</v>
+        <v>12.30317854519853</v>
       </c>
       <c r="AO8" t="n">
-        <v>38.08229260579037</v>
+        <v>45.66841251398596</v>
       </c>
       <c r="AP8" t="n">
-        <v>35.99518409997734</v>
+        <v>35.59168627973548</v>
       </c>
       <c r="AQ8" t="n">
-        <v>28.70288958698147</v>
+        <v>37.81012507955531</v>
       </c>
       <c r="AR8" t="n">
-        <v>25.88653389505924</v>
+        <v>19.37857598635595</v>
       </c>
       <c r="AS8" t="n">
-        <v>31.27500768809769</v>
+        <v>22.66685254478361</v>
       </c>
       <c r="AT8" t="n">
-        <v>26.93062386015079</v>
+        <v>18.24275495386333</v>
       </c>
       <c r="AU8" t="n">
-        <v>15.77820912220877</v>
+        <v>19.87542833378413</v>
       </c>
       <c r="AV8" t="n">
-        <v>43.21489576483488</v>
+        <v>12.70070224078977</v>
       </c>
       <c r="AW8" t="n">
-        <v>21.96123207961278</v>
+        <v>29.02003206209326</v>
       </c>
       <c r="AX8" t="n">
-        <v>21.3170192609836</v>
+        <v>20.51326333525434</v>
       </c>
     </row>
     <row r="9">
@@ -1757,148 +1757,148 @@
         <v>2</v>
       </c>
       <c r="C9" t="n">
-        <v>3.917366487665118</v>
+        <v>2.967948977545795</v>
       </c>
       <c r="D9" t="n">
-        <v>1.120609919182562</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>1.657653457213513</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>4.091498466596597</v>
+        <v>4.397296643918036</v>
       </c>
       <c r="G9" t="n">
-        <v>0.7128763322377131</v>
+        <v>1.32123577511589</v>
       </c>
       <c r="H9" t="n">
-        <v>2.848975028589659</v>
+        <v>2.06546134306943</v>
       </c>
       <c r="I9" t="n">
-        <v>6.634797771181084</v>
+        <v>1.474229548971556</v>
       </c>
       <c r="J9" t="n">
-        <v>9.242251984450563</v>
+        <v>5.086468380371412</v>
       </c>
       <c r="K9" t="n">
-        <v>1.882361893459936</v>
+        <v>4.108711901499524</v>
       </c>
       <c r="L9" t="n">
-        <v>2.745609809067785</v>
+        <v>0.9289820112805098</v>
       </c>
       <c r="M9" t="n">
-        <v>3.982100772755451</v>
+        <v>4.622471580629674</v>
       </c>
       <c r="N9" t="n">
-        <v>3.690876855941205</v>
+        <v>8.326130357240576</v>
       </c>
       <c r="O9" t="n">
-        <v>4.869472010657201</v>
+        <v>11.21759404185886</v>
       </c>
       <c r="P9" t="n">
-        <v>8.891000204323525</v>
+        <v>1.37328713977222</v>
       </c>
       <c r="Q9" t="n">
-        <v>12.94241785679933</v>
+        <v>4.018308802674453</v>
       </c>
       <c r="R9" t="n">
-        <v>1.252516773062912</v>
+        <v>6.144023712485849</v>
       </c>
       <c r="S9" t="n">
-        <v>2.453475250960284</v>
+        <v>4.819938874785287</v>
       </c>
       <c r="T9" t="n">
-        <v>4.408803541614257</v>
+        <v>2.428933261507811</v>
       </c>
       <c r="U9" t="n">
-        <v>3.369528857511682</v>
+        <v>4.87611460550785</v>
       </c>
       <c r="V9" t="n">
-        <v>4.998960059485974</v>
+        <v>6.901250750817624</v>
       </c>
       <c r="W9" t="n">
-        <v>5.283028717623663</v>
+        <v>2.65213954491069</v>
       </c>
       <c r="X9" t="n">
-        <v>3.380399094067129</v>
+        <v>7.023327936316259</v>
       </c>
       <c r="Y9" t="n">
-        <v>4.940290026154013</v>
+        <v>9.895615982222415</v>
       </c>
       <c r="Z9" t="n">
-        <v>5.758378887032793</v>
+        <v>9.475979679882432</v>
       </c>
       <c r="AA9" t="n">
-        <v>4.928080613861193</v>
+        <v>2.779204913034919</v>
       </c>
       <c r="AB9" t="n">
-        <v>2.077463246965728</v>
+        <v>3.358476674992072</v>
       </c>
       <c r="AC9" t="n">
-        <v>2.352382055882995</v>
+        <v>5.862386026023725</v>
       </c>
       <c r="AD9" t="n">
-        <v>4.440666889418264</v>
+        <v>6.028662944884124</v>
       </c>
       <c r="AE9" t="n">
-        <v>3.328566759091077</v>
+        <v>5.671427577260072</v>
       </c>
       <c r="AF9" t="n">
-        <v>6.916026921896886</v>
+        <v>1.713790512049173</v>
       </c>
       <c r="AG9" t="n">
-        <v>3.935497772907478</v>
+        <v>10.66432534400358</v>
       </c>
       <c r="AH9" t="n">
-        <v>6.934556139158986</v>
+        <v>8.733423079223456</v>
       </c>
       <c r="AI9" t="n">
-        <v>5.403703661437752</v>
+        <v>4.866221835935065</v>
       </c>
       <c r="AJ9" t="n">
-        <v>5.639560980481305</v>
+        <v>2.1278346437506</v>
       </c>
       <c r="AK9" t="n">
-        <v>2.223904952301818</v>
+        <v>3.978341579412034</v>
       </c>
       <c r="AL9" t="n">
-        <v>5.47372757651415</v>
+        <v>6.034868971418996</v>
       </c>
       <c r="AM9" t="n">
-        <v>2.828171919131975</v>
+        <v>4.385872614029426</v>
       </c>
       <c r="AN9" t="n">
-        <v>3.649239288664595</v>
+        <v>5.028211406745988</v>
       </c>
       <c r="AO9" t="n">
-        <v>3.080273446523744</v>
+        <v>4.238845794824881</v>
       </c>
       <c r="AP9" t="n">
-        <v>5.131272770806376</v>
+        <v>2.701072606310872</v>
       </c>
       <c r="AQ9" t="n">
-        <v>9.999491055742663</v>
+        <v>4.479286067526544</v>
       </c>
       <c r="AR9" t="n">
-        <v>3.926401403854985</v>
+        <v>4.382167711567492</v>
       </c>
       <c r="AS9" t="n">
-        <v>3.07834097785223</v>
+        <v>4.68883310430386</v>
       </c>
       <c r="AT9" t="n">
-        <v>1.77298786697325</v>
+        <v>3.622494048284127</v>
       </c>
       <c r="AU9" t="n">
-        <v>3.091080120943349</v>
+        <v>3.424960210359885</v>
       </c>
       <c r="AV9" t="n">
-        <v>7.09147134682278</v>
+        <v>2.884862353105017</v>
       </c>
       <c r="AW9" t="n">
-        <v>4.589095378443729</v>
+        <v>2.326515336342198</v>
       </c>
       <c r="AX9" t="n">
-        <v>3.537929230342685</v>
+        <v>3.581461700786062</v>
       </c>
     </row>
     <row r="10">
@@ -1909,148 +1909,148 @@
         <v>2</v>
       </c>
       <c r="C10" t="n">
-        <v>8.283853061628712</v>
+        <v>13.89984694816113</v>
       </c>
       <c r="D10" t="n">
-        <v>8.919563354224209</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>3.102778679024924</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>23.00265729282182</v>
+        <v>0.1736378569691333</v>
       </c>
       <c r="G10" t="n">
-        <v>16.38712089562578</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>19.21118542084388</v>
+        <v>19.77787764461923</v>
       </c>
       <c r="I10" t="n">
-        <v>43.73471508778692</v>
+        <v>38.4474686659438</v>
       </c>
       <c r="J10" t="n">
-        <v>16.66714122296444</v>
+        <v>59.33142854179048</v>
       </c>
       <c r="K10" t="n">
-        <v>29.82627537168386</v>
+        <v>3.849137676021758</v>
       </c>
       <c r="L10" t="n">
-        <v>28.97487359419421</v>
+        <v>89.22352962178849</v>
       </c>
       <c r="M10" t="n">
-        <v>43.48890471933843</v>
+        <v>327.1096991733716</v>
       </c>
       <c r="N10" t="n">
-        <v>63.84898183235823</v>
+        <v>47.35429763551016</v>
       </c>
       <c r="O10" t="n">
-        <v>23.83826043216919</v>
+        <v>81.42936429897871</v>
       </c>
       <c r="P10" t="n">
-        <v>44.22401163522032</v>
+        <v>38.44612620815449</v>
       </c>
       <c r="Q10" t="n">
-        <v>66.47899829558924</v>
+        <v>229.8316122048236</v>
       </c>
       <c r="R10" t="n">
-        <v>46.52043167889228</v>
+        <v>135.2010559971214</v>
       </c>
       <c r="S10" t="n">
-        <v>41.94173112621934</v>
+        <v>70.27315311837025</v>
       </c>
       <c r="T10" t="n">
-        <v>174.9821384424256</v>
+        <v>45.75469675860289</v>
       </c>
       <c r="U10" t="n">
-        <v>113.4626288546003</v>
+        <v>36.97147883224922</v>
       </c>
       <c r="V10" t="n">
-        <v>111.2429573566767</v>
+        <v>32.94744018537462</v>
       </c>
       <c r="W10" t="n">
-        <v>97.96840570625571</v>
+        <v>45.47545899966544</v>
       </c>
       <c r="X10" t="n">
-        <v>63.57232483153783</v>
+        <v>48.8783577499757</v>
       </c>
       <c r="Y10" t="n">
-        <v>137.8554714543621</v>
+        <v>46.89600899141999</v>
       </c>
       <c r="Z10" t="n">
-        <v>64.39286288584719</v>
+        <v>102.5592599356407</v>
       </c>
       <c r="AA10" t="n">
-        <v>48.57773784128187</v>
+        <v>48.82894114191402</v>
       </c>
       <c r="AB10" t="n">
-        <v>96.58459279397442</v>
+        <v>60.40416784378635</v>
       </c>
       <c r="AC10" t="n">
-        <v>79.35824518036912</v>
+        <v>61.697089444946</v>
       </c>
       <c r="AD10" t="n">
-        <v>92.71709565946071</v>
+        <v>88.13365504847673</v>
       </c>
       <c r="AE10" t="n">
-        <v>92.97977229240753</v>
+        <v>95.91310856956568</v>
       </c>
       <c r="AF10" t="n">
-        <v>54.73345859151561</v>
+        <v>28.82238027121032</v>
       </c>
       <c r="AG10" t="n">
-        <v>60.24316144633219</v>
+        <v>75.81851110385976</v>
       </c>
       <c r="AH10" t="n">
-        <v>45.64287990121353</v>
+        <v>6.476400552432409</v>
       </c>
       <c r="AI10" t="n">
-        <v>44.53333276488714</v>
+        <v>48.39734209614183</v>
       </c>
       <c r="AJ10" t="n">
-        <v>28.03774184222761</v>
+        <v>21.77832624030617</v>
       </c>
       <c r="AK10" t="n">
-        <v>33.36173633452947</v>
+        <v>20.01941634104779</v>
       </c>
       <c r="AL10" t="n">
-        <v>45.11257255161124</v>
+        <v>17.51670524577866</v>
       </c>
       <c r="AM10" t="n">
-        <v>27.88009359076906</v>
+        <v>18.06754954676662</v>
       </c>
       <c r="AN10" t="n">
-        <v>30.17011020724861</v>
+        <v>30.7334017556606</v>
       </c>
       <c r="AO10" t="n">
-        <v>25.53522796135288</v>
+        <v>29.02065724350334</v>
       </c>
       <c r="AP10" t="n">
-        <v>31.6124037793576</v>
+        <v>23.92612533654066</v>
       </c>
       <c r="AQ10" t="n">
-        <v>21.00897160278228</v>
+        <v>15.77401332455743</v>
       </c>
       <c r="AR10" t="n">
-        <v>26.53177365674492</v>
+        <v>7.705496364112502</v>
       </c>
       <c r="AS10" t="n">
-        <v>10.47470718266769</v>
+        <v>25.2069631436193</v>
       </c>
       <c r="AT10" t="n">
-        <v>32.23421262506439</v>
+        <v>33.38230692960531</v>
       </c>
       <c r="AU10" t="n">
-        <v>16.14797008560163</v>
+        <v>10.5696584949212</v>
       </c>
       <c r="AV10" t="n">
-        <v>32.82412652977405</v>
+        <v>11.82323694679223</v>
       </c>
       <c r="AW10" t="n">
-        <v>3.92014753739491</v>
+        <v>11.65418336316346</v>
       </c>
       <c r="AX10" t="n">
-        <v>9.172154816421708</v>
+        <v>8.977704571704722</v>
       </c>
     </row>
     <row r="11">
@@ -2061,148 +2061,148 @@
         <v>2</v>
       </c>
       <c r="C11" t="n">
-        <v>24.98505666623611</v>
+        <v>20.46762394499614</v>
       </c>
       <c r="D11" t="n">
-        <v>7.90868245056935</v>
+        <v>28.77792679625274</v>
       </c>
       <c r="E11" t="n">
-        <v>15.24075131659721</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>34.99513847283182</v>
+        <v>0.748494203217299</v>
       </c>
       <c r="H11" t="n">
-        <v>38.14485900866752</v>
+        <v>1.373098186781236</v>
       </c>
       <c r="I11" t="n">
-        <v>20.10743894471739</v>
+        <v>43.20813683398801</v>
       </c>
       <c r="J11" t="n">
-        <v>17.78893195886805</v>
+        <v>4.187615518274246</v>
       </c>
       <c r="K11" t="n">
-        <v>30.43202842358334</v>
+        <v>14.84348024712649</v>
       </c>
       <c r="L11" t="n">
-        <v>36.1139547240836</v>
+        <v>8.504495571860513</v>
       </c>
       <c r="M11" t="n">
-        <v>22.42277042241768</v>
+        <v>64.20485015645104</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>206.9377818506215</v>
       </c>
       <c r="O11" t="n">
-        <v>83.60315015277841</v>
+        <v>55.3685766323751</v>
       </c>
       <c r="P11" t="n">
-        <v>20.10383773726418</v>
+        <v>23.377326782258</v>
       </c>
       <c r="Q11" t="n">
-        <v>10.22658710378386</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>157.7995237751917</v>
+        <v>125.4691321288246</v>
       </c>
       <c r="S11" t="n">
-        <v>80.99614663290738</v>
+        <v>14.10881118261129</v>
       </c>
       <c r="T11" t="n">
-        <v>14.14458912716408</v>
+        <v>9.816129100271134</v>
       </c>
       <c r="U11" t="n">
-        <v>48.25083611628753</v>
+        <v>40.34525776667011</v>
       </c>
       <c r="V11" t="n">
-        <v>13.43874561997171</v>
+        <v>5.688704147172508</v>
       </c>
       <c r="W11" t="n">
-        <v>45.87321675414255</v>
+        <v>59.96449548870795</v>
       </c>
       <c r="X11" t="n">
-        <v>103.285538069432</v>
+        <v>11.28614375271314</v>
       </c>
       <c r="Y11" t="n">
-        <v>41.60129013288716</v>
+        <v>22.40697612282869</v>
       </c>
       <c r="Z11" t="n">
-        <v>134.2368170461855</v>
+        <v>21.09185149276003</v>
       </c>
       <c r="AA11" t="n">
-        <v>30.20456902409857</v>
+        <v>0.389939731314227</v>
       </c>
       <c r="AB11" t="n">
-        <v>56.38461556847934</v>
+        <v>8.910663308627669</v>
       </c>
       <c r="AC11" t="n">
-        <v>19.40005555914451</v>
+        <v>50.11482397534537</v>
       </c>
       <c r="AD11" t="n">
-        <v>43.13926845959404</v>
+        <v>36.00414196076869</v>
       </c>
       <c r="AE11" t="n">
-        <v>28.47853877580584</v>
+        <v>36.14309612900355</v>
       </c>
       <c r="AF11" t="n">
-        <v>58.84537281665594</v>
+        <v>52.93946367601345</v>
       </c>
       <c r="AG11" t="n">
-        <v>26.79098443057344</v>
+        <v>23.35061612192928</v>
       </c>
       <c r="AH11" t="n">
-        <v>31.20743653442966</v>
+        <v>29.50821213617434</v>
       </c>
       <c r="AI11" t="n">
-        <v>47.54278188024421</v>
+        <v>64.45118888258841</v>
       </c>
       <c r="AJ11" t="n">
-        <v>27.57788381710785</v>
+        <v>30.67396238124306</v>
       </c>
       <c r="AK11" t="n">
-        <v>2.846705135393946</v>
+        <v>21.2959889097189</v>
       </c>
       <c r="AL11" t="n">
-        <v>14.34821264980956</v>
+        <v>117.012725247134</v>
       </c>
       <c r="AM11" t="n">
-        <v>17.50341012911167</v>
+        <v>36.8863370778406</v>
       </c>
       <c r="AN11" t="n">
-        <v>3.509576590134663</v>
+        <v>20.74760383093099</v>
       </c>
       <c r="AO11" t="n">
-        <v>33.25395879968293</v>
+        <v>6.481515218401023</v>
       </c>
       <c r="AP11" t="n">
-        <v>15.95121546209707</v>
+        <v>25.88197469518131</v>
       </c>
       <c r="AQ11" t="n">
-        <v>30.78485675753926</v>
+        <v>28.15294855769372</v>
       </c>
       <c r="AR11" t="n">
-        <v>10.85502584964746</v>
+        <v>30.91560204397893</v>
       </c>
       <c r="AS11" t="n">
-        <v>6.217623415775526</v>
+        <v>41.49466049295295</v>
       </c>
       <c r="AT11" t="n">
-        <v>48.52674822859939</v>
+        <v>41.51084555362704</v>
       </c>
       <c r="AU11" t="n">
-        <v>23.09104039116365</v>
+        <v>30.23256956568503</v>
       </c>
       <c r="AV11" t="n">
-        <v>17.85176346663668</v>
+        <v>19.61270378314712</v>
       </c>
       <c r="AW11" t="n">
-        <v>19.73143094525637</v>
+        <v>29.89740477324044</v>
       </c>
       <c r="AX11" t="n">
-        <v>28.20153382661371</v>
+        <v>8.759433099841974</v>
       </c>
     </row>
     <row r="12">
@@ -2213,148 +2213,148 @@
         <v>2</v>
       </c>
       <c r="C12" t="n">
-        <v>2.69416900075682</v>
+        <v>1.034015805337593</v>
       </c>
       <c r="D12" t="n">
-        <v>0.2639833809195029</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>9.545419285962913</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>28.51173654472757</v>
+        <v>9.411411528404734</v>
       </c>
       <c r="G12" t="n">
-        <v>4.80542054016272</v>
+        <v>6.007316438215667</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>5.862586312285629</v>
       </c>
       <c r="I12" t="n">
-        <v>11.40777679710385</v>
+        <v>7.506165339106433</v>
       </c>
       <c r="J12" t="n">
-        <v>14.54378971496501</v>
+        <v>22.24728589748681</v>
       </c>
       <c r="K12" t="n">
-        <v>31.76618160666779</v>
+        <v>18.03705189901292</v>
       </c>
       <c r="L12" t="n">
-        <v>22.1898349789584</v>
+        <v>38.62002984040967</v>
       </c>
       <c r="M12" t="n">
-        <v>115.9119197050762</v>
+        <v>24.32537492841812</v>
       </c>
       <c r="N12" t="n">
-        <v>19.50002747649315</v>
+        <v>23.64517162180268</v>
       </c>
       <c r="O12" t="n">
-        <v>6.855018750144668</v>
+        <v>30.40154022546046</v>
       </c>
       <c r="P12" t="n">
-        <v>35.55144247411219</v>
+        <v>8.997573070731097</v>
       </c>
       <c r="Q12" t="n">
-        <v>19.17448023925099</v>
+        <v>51.159737191654</v>
       </c>
       <c r="R12" t="n">
-        <v>36.41227307219402</v>
+        <v>25.1917840917959</v>
       </c>
       <c r="S12" t="n">
-        <v>23.88272287711983</v>
+        <v>16.71148064624392</v>
       </c>
       <c r="T12" t="n">
-        <v>16.10502414747305</v>
+        <v>4.267872978654069</v>
       </c>
       <c r="U12" t="n">
-        <v>13.87596774423984</v>
+        <v>16.73884285696798</v>
       </c>
       <c r="V12" t="n">
-        <v>18.52562814288335</v>
+        <v>7.417988379157116</v>
       </c>
       <c r="W12" t="n">
-        <v>19.17383978372693</v>
+        <v>8.164636675958938</v>
       </c>
       <c r="X12" t="n">
-        <v>10.81460282506031</v>
+        <v>13.72122541470383</v>
       </c>
       <c r="Y12" t="n">
-        <v>23.25437614641889</v>
+        <v>15.70086563740934</v>
       </c>
       <c r="Z12" t="n">
-        <v>21.70734592232968</v>
+        <v>16.69063958391159</v>
       </c>
       <c r="AA12" t="n">
-        <v>18.69564049304541</v>
+        <v>11.10720900359447</v>
       </c>
       <c r="AB12" t="n">
-        <v>18.93211800258275</v>
+        <v>8.511551419667361</v>
       </c>
       <c r="AC12" t="n">
-        <v>24.39701413819075</v>
+        <v>14.19737531226117</v>
       </c>
       <c r="AD12" t="n">
-        <v>17.33419670072956</v>
+        <v>16.6462477048725</v>
       </c>
       <c r="AE12" t="n">
-        <v>14.07633184836881</v>
+        <v>25.06168355087919</v>
       </c>
       <c r="AF12" t="n">
-        <v>8.12262025141913</v>
+        <v>5.133787973391977</v>
       </c>
       <c r="AG12" t="n">
-        <v>11.12003230647435</v>
+        <v>11.59656188159533</v>
       </c>
       <c r="AH12" t="n">
-        <v>16.25298877280884</v>
+        <v>8.94746722544531</v>
       </c>
       <c r="AI12" t="n">
-        <v>9.630791927384429</v>
+        <v>6.991017744368492</v>
       </c>
       <c r="AJ12" t="n">
-        <v>3.118263629272091</v>
+        <v>1.597160543861498</v>
       </c>
       <c r="AK12" t="n">
-        <v>10.94645877281547</v>
+        <v>4.449695255566476</v>
       </c>
       <c r="AL12" t="n">
-        <v>3.900291948746477</v>
+        <v>0.7417165464713023</v>
       </c>
       <c r="AM12" t="n">
-        <v>9.26342449579948</v>
+        <v>3.826589089593476</v>
       </c>
       <c r="AN12" t="n">
-        <v>3.574528954921536</v>
+        <v>2.361076660967805</v>
       </c>
       <c r="AO12" t="n">
-        <v>5.510088503993151</v>
+        <v>0.9677748465433317</v>
       </c>
       <c r="AP12" t="n">
-        <v>5.823731065606273</v>
+        <v>3.063524651383169</v>
       </c>
       <c r="AQ12" t="n">
-        <v>5.438667054452099</v>
+        <v>10.71025842233455</v>
       </c>
       <c r="AR12" t="n">
-        <v>2.485111927001737</v>
+        <v>1.884566230804896</v>
       </c>
       <c r="AS12" t="n">
-        <v>0.8971515686027655</v>
+        <v>3.632139474602348</v>
       </c>
       <c r="AT12" t="n">
-        <v>2.35466679915079</v>
+        <v>3.969910941257085</v>
       </c>
       <c r="AU12" t="n">
-        <v>1.246088113082685</v>
+        <v>1.524696721063258</v>
       </c>
       <c r="AV12" t="n">
-        <v>4.068056770760812</v>
+        <v>1.588170059494615</v>
       </c>
       <c r="AW12" t="n">
-        <v>3.960529759627637</v>
+        <v>1.378125707222015</v>
       </c>
       <c r="AX12" t="n">
-        <v>3.731655378514674</v>
+        <v>1.694457523040737</v>
       </c>
     </row>
     <row r="13">
@@ -2365,148 +2365,148 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>1.5681528665199</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>14.85349262450023</v>
+        <v>28.47061699087089</v>
       </c>
       <c r="E13" t="n">
-        <v>17.98275512207599</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>14.20378711011248</v>
+        <v>11.21186398305151</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>0.8464630980250041</v>
       </c>
       <c r="H13" t="n">
-        <v>29.08488670557412</v>
+        <v>8.208229039985707</v>
       </c>
       <c r="I13" t="n">
-        <v>15.85651161407317</v>
+        <v>4.155100550246366</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>31.00242711810758</v>
       </c>
       <c r="K13" t="n">
-        <v>56.94825821117067</v>
+        <v>20.66669858816307</v>
       </c>
       <c r="L13" t="n">
-        <v>80.40813205550151</v>
+        <v>21.96665302012206</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>31.18933165834716</v>
       </c>
       <c r="N13" t="n">
-        <v>23.51133486656317</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>78.21851555832245</v>
+        <v>2.885666367392329</v>
       </c>
       <c r="P13" t="n">
-        <v>16.87544282501003</v>
+        <v>24.32485927809801</v>
       </c>
       <c r="Q13" t="n">
-        <v>25.87544079276588</v>
+        <v>96.94430904859541</v>
       </c>
       <c r="R13" t="n">
-        <v>59.86961677022331</v>
+        <v>15.99088291858852</v>
       </c>
       <c r="S13" t="n">
-        <v>22.29228282036295</v>
+        <v>21.91595269576419</v>
       </c>
       <c r="T13" t="n">
-        <v>32.80961862772651</v>
+        <v>44.49465550213174</v>
       </c>
       <c r="U13" t="n">
-        <v>21.12702768736821</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>17.56154378424942</v>
+        <v>10.71562997841044</v>
       </c>
       <c r="W13" t="n">
-        <v>6.102338174956476</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>13.00458036856244</v>
       </c>
       <c r="Y13" t="n">
-        <v>29.37325950066014</v>
+        <v>0</v>
       </c>
       <c r="Z13" t="n">
-        <v>2.483284129205879</v>
+        <v>22.86236306834988</v>
       </c>
       <c r="AA13" t="n">
-        <v>4.521911485592288</v>
+        <v>7.092627110178922</v>
       </c>
       <c r="AB13" t="n">
-        <v>3.969366446610591</v>
+        <v>9.633797234832169</v>
       </c>
       <c r="AC13" t="n">
-        <v>11.35663061667714</v>
+        <v>10.5769612286555</v>
       </c>
       <c r="AD13" t="n">
-        <v>15.30047757148088</v>
+        <v>3.322906991222486</v>
       </c>
       <c r="AE13" t="n">
-        <v>30.31119409588759</v>
+        <v>15.54279971539747</v>
       </c>
       <c r="AF13" t="n">
-        <v>7.804511419515407</v>
+        <v>4.3897494691002</v>
       </c>
       <c r="AG13" t="n">
-        <v>12.88112779458168</v>
+        <v>0</v>
       </c>
       <c r="AH13" t="n">
-        <v>14.22263525941402</v>
+        <v>14.39294812839506</v>
       </c>
       <c r="AI13" t="n">
-        <v>3.457995443017396</v>
+        <v>0.5347086407924044</v>
       </c>
       <c r="AJ13" t="n">
-        <v>0.98697169036275</v>
+        <v>11.79640499115817</v>
       </c>
       <c r="AK13" t="n">
-        <v>27.08725054527898</v>
+        <v>6.395709266694878</v>
       </c>
       <c r="AL13" t="n">
-        <v>7.352965571651121</v>
+        <v>7.275553149922898</v>
       </c>
       <c r="AM13" t="n">
-        <v>1.064808276438331</v>
+        <v>2.599783381279522</v>
       </c>
       <c r="AN13" t="n">
-        <v>1.674856764024815</v>
+        <v>8.294310151411743</v>
       </c>
       <c r="AO13" t="n">
-        <v>1.815301753920728</v>
+        <v>8.463159656946623</v>
       </c>
       <c r="AP13" t="n">
-        <v>2.616873319926815</v>
+        <v>21.02575540465135</v>
       </c>
       <c r="AQ13" t="n">
-        <v>3.637785453259847</v>
+        <v>21.28866443811198</v>
       </c>
       <c r="AR13" t="n">
-        <v>20.70208262804884</v>
+        <v>8.056910017894312</v>
       </c>
       <c r="AS13" t="n">
-        <v>10.20741049253668</v>
+        <v>1.298004923808823</v>
       </c>
       <c r="AT13" t="n">
-        <v>4.896808259271921</v>
+        <v>8.408615735017728</v>
       </c>
       <c r="AU13" t="n">
-        <v>23.45748035348037</v>
+        <v>14.11473040943737</v>
       </c>
       <c r="AV13" t="n">
-        <v>0.3357136932580073</v>
+        <v>19.63429845919426</v>
       </c>
       <c r="AW13" t="n">
-        <v>1.861076033381913</v>
+        <v>4.559785386441683</v>
       </c>
       <c r="AX13" t="n">
-        <v>2.114708732319609</v>
+        <v>3.626938974360486</v>
       </c>
     </row>
     <row r="14">
@@ -2517,148 +2517,148 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>14.39542266930213</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>30.63137955277422</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>34.59180858829514</v>
+        <v>38.85320577663173</v>
       </c>
       <c r="F14" t="n">
-        <v>37.70982993647499</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>8.072929572930077</v>
+        <v>16.10757782686623</v>
       </c>
       <c r="H14" t="n">
-        <v>39.2001900807857</v>
+        <v>13.05912144716557</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>40.83913969464043</v>
       </c>
       <c r="J14" t="n">
-        <v>320.29033433414</v>
+        <v>17.59286576033844</v>
       </c>
       <c r="K14" t="n">
-        <v>47.51946331159292</v>
+        <v>103.2689463417281</v>
       </c>
       <c r="L14" t="n">
-        <v>118.0692416336696</v>
+        <v>57.75452718705371</v>
       </c>
       <c r="M14" t="n">
-        <v>35.1293272261814</v>
+        <v>49.75002047161014</v>
       </c>
       <c r="N14" t="n">
-        <v>98.60997463072519</v>
+        <v>62.2651089234</v>
       </c>
       <c r="O14" t="n">
-        <v>55.25533026417885</v>
+        <v>44.93272379667868</v>
       </c>
       <c r="P14" t="n">
-        <v>35.31965799355663</v>
+        <v>66.12478880730598</v>
       </c>
       <c r="Q14" t="n">
-        <v>37.70615225948931</v>
+        <v>68.07213505009867</v>
       </c>
       <c r="R14" t="n">
-        <v>51.41358735969197</v>
+        <v>73.66950090468205</v>
       </c>
       <c r="S14" t="n">
-        <v>79.62592879854046</v>
+        <v>39.96420103191176</v>
       </c>
       <c r="T14" t="n">
-        <v>32.31668877277943</v>
+        <v>31.4754669635944</v>
       </c>
       <c r="U14" t="n">
-        <v>97.51865044701935</v>
+        <v>82.70894822172387</v>
       </c>
       <c r="V14" t="n">
-        <v>69.43603513823162</v>
+        <v>71.6190620170164</v>
       </c>
       <c r="W14" t="n">
-        <v>56.28729927836125</v>
+        <v>36.4733337250782</v>
       </c>
       <c r="X14" t="n">
-        <v>53.72522013189366</v>
+        <v>49.64841296485054</v>
       </c>
       <c r="Y14" t="n">
-        <v>73.29071820634914</v>
+        <v>66.12268772923296</v>
       </c>
       <c r="Z14" t="n">
-        <v>73.10866998773196</v>
+        <v>55.82964152164417</v>
       </c>
       <c r="AA14" t="n">
-        <v>69.12336938993674</v>
+        <v>80.3620339657881</v>
       </c>
       <c r="AB14" t="n">
-        <v>134.5144740724549</v>
+        <v>119.2093026588157</v>
       </c>
       <c r="AC14" t="n">
-        <v>123.2829784533403</v>
+        <v>92.19557641576283</v>
       </c>
       <c r="AD14" t="n">
-        <v>158.1015929965998</v>
+        <v>126.7422403686422</v>
       </c>
       <c r="AE14" t="n">
-        <v>78.97081320000785</v>
+        <v>231.5474972690809</v>
       </c>
       <c r="AF14" t="n">
-        <v>120.1937490314534</v>
+        <v>157.8789947428736</v>
       </c>
       <c r="AG14" t="n">
-        <v>35.63896590364598</v>
+        <v>14.98955564933186</v>
       </c>
       <c r="AH14" t="n">
-        <v>85.88177820351549</v>
+        <v>125.7616747171903</v>
       </c>
       <c r="AI14" t="n">
-        <v>41.26277061017447</v>
+        <v>126.5068368354869</v>
       </c>
       <c r="AJ14" t="n">
-        <v>36.30261572436303</v>
+        <v>120.15365508175</v>
       </c>
       <c r="AK14" t="n">
-        <v>79.42996008579968</v>
+        <v>32.43932036435467</v>
       </c>
       <c r="AL14" t="n">
-        <v>85.32969169016404</v>
+        <v>17.25655531961157</v>
       </c>
       <c r="AM14" t="n">
-        <v>50.36327911604523</v>
+        <v>23.39706985747657</v>
       </c>
       <c r="AN14" t="n">
-        <v>62.49407454830446</v>
+        <v>27.38615709596063</v>
       </c>
       <c r="AO14" t="n">
-        <v>30.79473194510784</v>
+        <v>40.63527129749145</v>
       </c>
       <c r="AP14" t="n">
-        <v>33.59624335767524</v>
+        <v>30.60039191703468</v>
       </c>
       <c r="AQ14" t="n">
-        <v>20.38752781174897</v>
+        <v>17.47235046352578</v>
       </c>
       <c r="AR14" t="n">
-        <v>29.1275481601564</v>
+        <v>15.54310814802298</v>
       </c>
       <c r="AS14" t="n">
-        <v>13.30082172359744</v>
+        <v>15.79800594290819</v>
       </c>
       <c r="AT14" t="n">
-        <v>14.75864300582655</v>
+        <v>26.23340079810649</v>
       </c>
       <c r="AU14" t="n">
-        <v>18.32351454565839</v>
+        <v>7.828730344160505</v>
       </c>
       <c r="AV14" t="n">
-        <v>18.15308664822527</v>
+        <v>14.52642668249031</v>
       </c>
       <c r="AW14" t="n">
-        <v>13.40425984793143</v>
+        <v>20.5516301667311</v>
       </c>
       <c r="AX14" t="n">
-        <v>16.19507649290576</v>
+        <v>12.29108018494951</v>
       </c>
     </row>
     <row r="15">
@@ -2669,148 +2669,148 @@
         <v>3</v>
       </c>
       <c r="C15" t="n">
-        <v>2.894713737418615</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>4.251529244458228</v>
+        <v>3.809845228556199</v>
       </c>
       <c r="E15" t="n">
-        <v>2.823668777606329</v>
+        <v>3.183228654615466</v>
       </c>
       <c r="F15" t="n">
-        <v>4.494816231508225</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.433710651223194</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.655366140635763</v>
+        <v>1.959264273363078</v>
       </c>
       <c r="I15" t="n">
-        <v>2.910809854083259</v>
+        <v>8.299346085278124</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>6.77586389933272</v>
       </c>
       <c r="K15" t="n">
-        <v>5.649152747486538</v>
+        <v>4.458827531969694</v>
       </c>
       <c r="L15" t="n">
-        <v>12.07716143877333</v>
+        <v>4.50351049690217</v>
       </c>
       <c r="M15" t="n">
-        <v>1.876526766663653</v>
+        <v>11.09300220964103</v>
       </c>
       <c r="N15" t="n">
-        <v>7.595143184375305</v>
+        <v>8.185215816844547</v>
       </c>
       <c r="O15" t="n">
-        <v>6.700084888640758</v>
+        <v>4.911490202091025</v>
       </c>
       <c r="P15" t="n">
-        <v>2.487138078933607</v>
+        <v>2.085662631770296</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.429899539584672</v>
+        <v>4.083122743751496</v>
       </c>
       <c r="R15" t="n">
-        <v>3.683938388049056</v>
+        <v>1.644116335125298</v>
       </c>
       <c r="S15" t="n">
-        <v>1.815896663554293</v>
+        <v>1.225090510576345</v>
       </c>
       <c r="T15" t="n">
-        <v>11.22994088457496</v>
+        <v>7.938697880012765</v>
       </c>
       <c r="U15" t="n">
-        <v>4.147328622038059</v>
+        <v>9.353646106415406</v>
       </c>
       <c r="V15" t="n">
-        <v>3.012781831946481</v>
+        <v>5.522070553293178</v>
       </c>
       <c r="W15" t="n">
-        <v>2.065713556989267</v>
+        <v>1.933923864721061</v>
       </c>
       <c r="X15" t="n">
-        <v>1.242699101703588</v>
+        <v>1.238921520797627</v>
       </c>
       <c r="Y15" t="n">
-        <v>3.986196510271879</v>
+        <v>3.66659135554881</v>
       </c>
       <c r="Z15" t="n">
-        <v>5.149131547275854</v>
+        <v>5.202001411336875</v>
       </c>
       <c r="AA15" t="n">
-        <v>3.099998680024278</v>
+        <v>5.460709182047808</v>
       </c>
       <c r="AB15" t="n">
-        <v>7.306256522846104</v>
+        <v>4.99756403932741</v>
       </c>
       <c r="AC15" t="n">
-        <v>5.740490821696347</v>
+        <v>2.772174315419362</v>
       </c>
       <c r="AD15" t="n">
-        <v>2.344700825745968</v>
+        <v>6.094326432493336</v>
       </c>
       <c r="AE15" t="n">
-        <v>5.614127122881866</v>
+        <v>4.74755089227124</v>
       </c>
       <c r="AF15" t="n">
-        <v>2.452146045838428</v>
+        <v>4.201949808464207</v>
       </c>
       <c r="AG15" t="n">
-        <v>2.347193781666002</v>
+        <v>3.073969058494872</v>
       </c>
       <c r="AH15" t="n">
-        <v>1.702594349779376</v>
+        <v>5.867770010319887</v>
       </c>
       <c r="AI15" t="n">
-        <v>3.987402799403419</v>
+        <v>0</v>
       </c>
       <c r="AJ15" t="n">
-        <v>6.736631264551631</v>
+        <v>3.500888016271444</v>
       </c>
       <c r="AK15" t="n">
-        <v>3.149091637176381</v>
+        <v>2.61294953655473</v>
       </c>
       <c r="AL15" t="n">
-        <v>3.360834567244957</v>
+        <v>5.079539345616888</v>
       </c>
       <c r="AM15" t="n">
-        <v>4.794406385367044</v>
+        <v>4.788981124826215</v>
       </c>
       <c r="AN15" t="n">
-        <v>3.269933593038997</v>
+        <v>4.243246728966188</v>
       </c>
       <c r="AO15" t="n">
-        <v>7.195185861679153</v>
+        <v>2.342483493428055</v>
       </c>
       <c r="AP15" t="n">
-        <v>2.559154486806445</v>
+        <v>5.674498229237224</v>
       </c>
       <c r="AQ15" t="n">
-        <v>3.399418515765557</v>
+        <v>1.640855562772041</v>
       </c>
       <c r="AR15" t="n">
-        <v>4.66584310731793</v>
+        <v>0.3493058738098265</v>
       </c>
       <c r="AS15" t="n">
-        <v>3.328768095103881</v>
+        <v>2.777813598044937</v>
       </c>
       <c r="AT15" t="n">
-        <v>3.061163008905473</v>
+        <v>4.477188169883809</v>
       </c>
       <c r="AU15" t="n">
-        <v>4.571471053724834</v>
+        <v>2.048011500591268</v>
       </c>
       <c r="AV15" t="n">
-        <v>2.527979823810497</v>
+        <v>6.336542281937195</v>
       </c>
       <c r="AW15" t="n">
-        <v>4.27595882132219</v>
+        <v>1.730448546606409</v>
       </c>
       <c r="AX15" t="n">
-        <v>2.493600845292094</v>
+        <v>3.503783480968575</v>
       </c>
     </row>
     <row r="16">
@@ -2821,148 +2821,148 @@
         <v>3</v>
       </c>
       <c r="C16" t="n">
-        <v>8.813388298309127</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>4.618145681376087</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>16.52302858772772</v>
+        <v>20.46059645875309</v>
       </c>
       <c r="F16" t="n">
-        <v>6.579309823428718</v>
+        <v>8.724744910304654</v>
       </c>
       <c r="G16" t="n">
-        <v>4.31155790723663</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>19.03563363261413</v>
+        <v>24.23084051583637</v>
       </c>
       <c r="I16" t="n">
-        <v>6.924259103979257</v>
+        <v>52.45713886489288</v>
       </c>
       <c r="J16" t="n">
-        <v>182.7718736203391</v>
+        <v>180.7938995414701</v>
       </c>
       <c r="K16" t="n">
-        <v>384.1719642257811</v>
+        <v>29.70148077696619</v>
       </c>
       <c r="L16" t="n">
-        <v>106.6486859352852</v>
+        <v>124.8347571805119</v>
       </c>
       <c r="M16" t="n">
-        <v>17.99566789563411</v>
+        <v>60.19536439692591</v>
       </c>
       <c r="N16" t="n">
-        <v>63.97172739936073</v>
+        <v>23.35562052425927</v>
       </c>
       <c r="O16" t="n">
-        <v>68.64842735589637</v>
+        <v>64.11858702361891</v>
       </c>
       <c r="P16" t="n">
-        <v>95.06068987996153</v>
+        <v>79.43721633366425</v>
       </c>
       <c r="Q16" t="n">
-        <v>152.2155952430213</v>
+        <v>208.7588098454244</v>
       </c>
       <c r="R16" t="n">
-        <v>45.10067939185307</v>
+        <v>81.32578784548883</v>
       </c>
       <c r="S16" t="n">
-        <v>129.6528793468438</v>
+        <v>81.09954518410933</v>
       </c>
       <c r="T16" t="n">
-        <v>72.38097017556508</v>
+        <v>28.84697592913512</v>
       </c>
       <c r="U16" t="n">
-        <v>89.80278699746164</v>
+        <v>49.45709938170713</v>
       </c>
       <c r="V16" t="n">
-        <v>82.12523319008237</v>
+        <v>3.138490866722314</v>
       </c>
       <c r="W16" t="n">
-        <v>34.44825988125237</v>
+        <v>145.2747684372844</v>
       </c>
       <c r="X16" t="n">
-        <v>27.2180422136043</v>
+        <v>155.9116222338506</v>
       </c>
       <c r="Y16" t="n">
-        <v>81.15108579290531</v>
+        <v>0</v>
       </c>
       <c r="Z16" t="n">
-        <v>53.89715619961104</v>
+        <v>48.09017716312009</v>
       </c>
       <c r="AA16" t="n">
-        <v>51.18213105177188</v>
+        <v>24.93574364234887</v>
       </c>
       <c r="AB16" t="n">
-        <v>71.95127627152712</v>
+        <v>90.99646535213962</v>
       </c>
       <c r="AC16" t="n">
-        <v>78.47149969887394</v>
+        <v>115.8036978112416</v>
       </c>
       <c r="AD16" t="n">
-        <v>92.08254755381978</v>
+        <v>92.53936746403458</v>
       </c>
       <c r="AE16" t="n">
-        <v>139.0380415870389</v>
+        <v>128.7550096956055</v>
       </c>
       <c r="AF16" t="n">
-        <v>101.6917465050178</v>
+        <v>99.89932403191064</v>
       </c>
       <c r="AG16" t="n">
-        <v>53.58855331342383</v>
+        <v>96.16099705610294</v>
       </c>
       <c r="AH16" t="n">
-        <v>66.14938525079981</v>
+        <v>17.39351550533737</v>
       </c>
       <c r="AI16" t="n">
-        <v>99.43091359499394</v>
+        <v>36.09956369818035</v>
       </c>
       <c r="AJ16" t="n">
-        <v>47.12113225611354</v>
+        <v>36.69524626057485</v>
       </c>
       <c r="AK16" t="n">
-        <v>35.89651497745717</v>
+        <v>35.09190344339243</v>
       </c>
       <c r="AL16" t="n">
-        <v>19.09706413379788</v>
+        <v>89.69245810414041</v>
       </c>
       <c r="AM16" t="n">
-        <v>29.13138850325041</v>
+        <v>13.64848508838836</v>
       </c>
       <c r="AN16" t="n">
-        <v>15.69712774102898</v>
+        <v>4.671451983288076</v>
       </c>
       <c r="AO16" t="n">
-        <v>13.25499467072971</v>
+        <v>19.25350524178934</v>
       </c>
       <c r="AP16" t="n">
-        <v>11.91221547399307</v>
+        <v>21.13505031956014</v>
       </c>
       <c r="AQ16" t="n">
-        <v>14.11476820803462</v>
+        <v>16.60262174017571</v>
       </c>
       <c r="AR16" t="n">
-        <v>13.63675606160666</v>
+        <v>11.34806229453305</v>
       </c>
       <c r="AS16" t="n">
-        <v>19.00095133768331</v>
+        <v>10.00015478822444</v>
       </c>
       <c r="AT16" t="n">
-        <v>15.2243678876754</v>
+        <v>5.740888733480763</v>
       </c>
       <c r="AU16" t="n">
-        <v>7.881016443146524</v>
+        <v>7.473886197544415</v>
       </c>
       <c r="AV16" t="n">
-        <v>7.023625298141559</v>
+        <v>15.95291642218927</v>
       </c>
       <c r="AW16" t="n">
-        <v>12.11939790059857</v>
+        <v>12.64874295991895</v>
       </c>
       <c r="AX16" t="n">
-        <v>4.341222160694042</v>
+        <v>20.77681131869194</v>
       </c>
     </row>
     <row r="17">
@@ -2973,148 +2973,148 @@
         <v>3</v>
       </c>
       <c r="C17" t="n">
-        <v>25.47729771130593</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>26.96355310134931</v>
+        <v>14.00328989873177</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>18.27716478446223</v>
       </c>
       <c r="F17" t="n">
-        <v>15.57982757040384</v>
+        <v>5.296485611235187</v>
       </c>
       <c r="G17" t="n">
-        <v>9.397665223918162</v>
+        <v>81.50850616280522</v>
       </c>
       <c r="H17" t="n">
-        <v>36.72336551412605</v>
+        <v>53.09009920873961</v>
       </c>
       <c r="I17" t="n">
-        <v>111.3612149191848</v>
+        <v>26.73796571917065</v>
       </c>
       <c r="J17" t="n">
-        <v>68.09647103787105</v>
+        <v>195.0518318033922</v>
       </c>
       <c r="K17" t="n">
-        <v>45.33453080673796</v>
+        <v>16.00907889431033</v>
       </c>
       <c r="L17" t="n">
-        <v>21.8140977508975</v>
+        <v>34.38741460000819</v>
       </c>
       <c r="M17" t="n">
-        <v>54.47643110867935</v>
+        <v>5.096126767932389</v>
       </c>
       <c r="N17" t="n">
-        <v>52.62296295173142</v>
+        <v>70.79563021264289</v>
       </c>
       <c r="O17" t="n">
-        <v>70.89980948872437</v>
+        <v>14.94936789842193</v>
       </c>
       <c r="P17" t="n">
-        <v>66.62868101603884</v>
+        <v>23.42806714278779</v>
       </c>
       <c r="Q17" t="n">
-        <v>40.64005121466185</v>
+        <v>20.45398616031882</v>
       </c>
       <c r="R17" t="n">
-        <v>10.70489746249716</v>
+        <v>33.17896324983569</v>
       </c>
       <c r="S17" t="n">
-        <v>14.07966450702238</v>
+        <v>59.92383926315755</v>
       </c>
       <c r="T17" t="n">
-        <v>62.92521736533546</v>
+        <v>29.40978445589696</v>
       </c>
       <c r="U17" t="n">
-        <v>29.90717781927369</v>
+        <v>56.57984068178707</v>
       </c>
       <c r="V17" t="n">
-        <v>34.2988018891083</v>
+        <v>285.4619625912884</v>
       </c>
       <c r="W17" t="n">
-        <v>81.20020307387057</v>
+        <v>39.56582193058899</v>
       </c>
       <c r="X17" t="n">
-        <v>6.925803363785537</v>
+        <v>25.19047731167465</v>
       </c>
       <c r="Y17" t="n">
-        <v>109.4464212210681</v>
+        <v>32.11185906120161</v>
       </c>
       <c r="Z17" t="n">
-        <v>62.24654624382948</v>
+        <v>51.6262683402058</v>
       </c>
       <c r="AA17" t="n">
-        <v>40.74136502633381</v>
+        <v>23.04567398394067</v>
       </c>
       <c r="AB17" t="n">
-        <v>21.82184631483289</v>
+        <v>17.19112534647104</v>
       </c>
       <c r="AC17" t="n">
-        <v>18.66473648169315</v>
+        <v>27.76994668572829</v>
       </c>
       <c r="AD17" t="n">
-        <v>31.23191854921769</v>
+        <v>39.80859223545924</v>
       </c>
       <c r="AE17" t="n">
-        <v>41.6121400387501</v>
+        <v>42.89098056829609</v>
       </c>
       <c r="AF17" t="n">
-        <v>20.73590582550727</v>
+        <v>0</v>
       </c>
       <c r="AG17" t="n">
-        <v>26.38283673735343</v>
+        <v>0</v>
       </c>
       <c r="AH17" t="n">
-        <v>25.22532251374796</v>
+        <v>47.74361283977419</v>
       </c>
       <c r="AI17" t="n">
-        <v>61.56856226179332</v>
+        <v>61.13737039961522</v>
       </c>
       <c r="AJ17" t="n">
-        <v>62.45385482300326</v>
+        <v>22.83745733309019</v>
       </c>
       <c r="AK17" t="n">
-        <v>25.51594860139494</v>
+        <v>11.35734777610642</v>
       </c>
       <c r="AL17" t="n">
-        <v>73.0543184400709</v>
+        <v>78.37922126854588</v>
       </c>
       <c r="AM17" t="n">
-        <v>26.15522462877869</v>
+        <v>36.64368715031716</v>
       </c>
       <c r="AN17" t="n">
-        <v>9.342240974676734</v>
+        <v>40.83730692292825</v>
       </c>
       <c r="AO17" t="n">
-        <v>27.14550814955461</v>
+        <v>29.30446302711725</v>
       </c>
       <c r="AP17" t="n">
-        <v>5.022968949346483</v>
+        <v>29.09972820064421</v>
       </c>
       <c r="AQ17" t="n">
-        <v>1.782205376696364</v>
+        <v>25.08510968538366</v>
       </c>
       <c r="AR17" t="n">
-        <v>36.09746358616633</v>
+        <v>21.09282115229111</v>
       </c>
       <c r="AS17" t="n">
-        <v>2.196862548565323</v>
+        <v>23.95348637739421</v>
       </c>
       <c r="AT17" t="n">
-        <v>19.4037941749069</v>
+        <v>28.61001660431392</v>
       </c>
       <c r="AU17" t="n">
-        <v>8.703675344006816</v>
+        <v>38.88964427971273</v>
       </c>
       <c r="AV17" t="n">
-        <v>21.04875977990045</v>
+        <v>0</v>
       </c>
       <c r="AW17" t="n">
-        <v>23.94899203433201</v>
+        <v>29.02622614999163</v>
       </c>
       <c r="AX17" t="n">
-        <v>19.36515651417057</v>
+        <v>4.376945512030823</v>
       </c>
     </row>
     <row r="18">
@@ -3125,148 +3125,148 @@
         <v>3</v>
       </c>
       <c r="C18" t="n">
-        <v>3.843471619467312</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>2.221257914752061</v>
+        <v>2.585552001547552</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>3.581071556968893</v>
       </c>
       <c r="F18" t="n">
-        <v>14.40592656086664</v>
+        <v>5.666854319476064</v>
       </c>
       <c r="G18" t="n">
-        <v>61.57304896936877</v>
+        <v>7.452809897071836</v>
       </c>
       <c r="H18" t="n">
-        <v>3.541901191456472</v>
+        <v>7.841438313451571</v>
       </c>
       <c r="I18" t="n">
-        <v>10.98585761476412</v>
+        <v>27.54786393505186</v>
       </c>
       <c r="J18" t="n">
-        <v>77.70169676193494</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>43.07190599530683</v>
+        <v>4.140882371684556</v>
       </c>
       <c r="L18" t="n">
-        <v>15.51268041514172</v>
+        <v>19.69847081663883</v>
       </c>
       <c r="M18" t="n">
-        <v>104.9989401781547</v>
+        <v>36.54883647180848</v>
       </c>
       <c r="N18" t="n">
-        <v>32.01102854037421</v>
+        <v>13.28044204794439</v>
       </c>
       <c r="O18" t="n">
-        <v>7.036935975045073</v>
+        <v>93.98679839143684</v>
       </c>
       <c r="P18" t="n">
-        <v>35.88310700143916</v>
+        <v>32.1303695847894</v>
       </c>
       <c r="Q18" t="n">
-        <v>42.70394979292936</v>
+        <v>9.152907895574508</v>
       </c>
       <c r="R18" t="n">
-        <v>14.10235809942586</v>
+        <v>30.82539025545778</v>
       </c>
       <c r="S18" t="n">
-        <v>10.19163564123303</v>
+        <v>10.93988474562265</v>
       </c>
       <c r="T18" t="n">
-        <v>20.85729841103723</v>
+        <v>71.88629211111937</v>
       </c>
       <c r="U18" t="n">
-        <v>11.89041841324568</v>
+        <v>17.37572679454582</v>
       </c>
       <c r="V18" t="n">
-        <v>18.00702665909599</v>
+        <v>13.53424335669453</v>
       </c>
       <c r="W18" t="n">
-        <v>12.56203692728659</v>
+        <v>42.96562688308696</v>
       </c>
       <c r="X18" t="n">
-        <v>45.20501235538708</v>
+        <v>12.53166811354251</v>
       </c>
       <c r="Y18" t="n">
-        <v>21.56495617268057</v>
+        <v>14.56622056793586</v>
       </c>
       <c r="Z18" t="n">
-        <v>8.863486674052064</v>
+        <v>15.92608824327545</v>
       </c>
       <c r="AA18" t="n">
-        <v>18.77641136146705</v>
+        <v>13.64930357603888</v>
       </c>
       <c r="AB18" t="n">
-        <v>46.78859652809143</v>
+        <v>16.71847291456066</v>
       </c>
       <c r="AC18" t="n">
-        <v>26.7041732368692</v>
+        <v>27.82032858281179</v>
       </c>
       <c r="AD18" t="n">
-        <v>8.382607214065445</v>
+        <v>38.26397625974958</v>
       </c>
       <c r="AE18" t="n">
-        <v>12.74624550385051</v>
+        <v>28.5289918476628</v>
       </c>
       <c r="AF18" t="n">
-        <v>32.27050928706533</v>
+        <v>6.145310957638786</v>
       </c>
       <c r="AG18" t="n">
-        <v>11.42891236009686</v>
+        <v>5.482791672937681</v>
       </c>
       <c r="AH18" t="n">
-        <v>18.98836064407449</v>
+        <v>17.5080739986026</v>
       </c>
       <c r="AI18" t="n">
-        <v>22.25004980067963</v>
+        <v>10.00824544605771</v>
       </c>
       <c r="AJ18" t="n">
-        <v>9.48439089068242</v>
+        <v>11.74970943479022</v>
       </c>
       <c r="AK18" t="n">
-        <v>3.899871338007601</v>
+        <v>11.56868419545186</v>
       </c>
       <c r="AL18" t="n">
-        <v>2.936749529382296</v>
+        <v>25.07609160920777</v>
       </c>
       <c r="AM18" t="n">
-        <v>4.603203360440236</v>
+        <v>6.716022037140606</v>
       </c>
       <c r="AN18" t="n">
-        <v>4.783962491700364</v>
+        <v>2.592293582684002</v>
       </c>
       <c r="AO18" t="n">
-        <v>4.757837814912516</v>
+        <v>4.551561320947123</v>
       </c>
       <c r="AP18" t="n">
-        <v>6.655402893514438</v>
+        <v>2.653025168237744</v>
       </c>
       <c r="AQ18" t="n">
-        <v>6.538015382310114</v>
+        <v>1.956479213835331</v>
       </c>
       <c r="AR18" t="n">
-        <v>1.462571391569459</v>
+        <v>4.490858430836384</v>
       </c>
       <c r="AS18" t="n">
-        <v>0.5643204930607859</v>
+        <v>3.870264275872337</v>
       </c>
       <c r="AT18" t="n">
-        <v>4.982111544495106</v>
+        <v>3.856974139104611</v>
       </c>
       <c r="AU18" t="n">
-        <v>3.996214520710433</v>
+        <v>2.654273139089095</v>
       </c>
       <c r="AV18" t="n">
-        <v>0.6172999442762307</v>
+        <v>3.265078499504719</v>
       </c>
       <c r="AW18" t="n">
-        <v>1.418652762738882</v>
+        <v>0.9855943758926961</v>
       </c>
       <c r="AX18" t="n">
-        <v>1.804222310746809</v>
+        <v>0.2452789516548988</v>
       </c>
     </row>
     <row r="19">
@@ -3277,148 +3277,148 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>8.745980728518196</v>
+        <v>15.00467939392769</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>75.44294331865618</v>
       </c>
       <c r="E19" t="n">
-        <v>78.3575724303394</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>20.56474471039207</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>17.02223747728579</v>
       </c>
       <c r="H19" t="n">
-        <v>8.409429650552497</v>
+        <v>18.4574560115077</v>
       </c>
       <c r="I19" t="n">
-        <v>10.16097296428515</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>23.8724355974803</v>
+        <v>121.4324774333554</v>
       </c>
       <c r="K19" t="n">
-        <v>52.78600309160191</v>
+        <v>21.52349040017923</v>
       </c>
       <c r="L19" t="n">
-        <v>36.10155973601351</v>
+        <v>16.68373050725606</v>
       </c>
       <c r="M19" t="n">
-        <v>20.52800667468036</v>
+        <v>47.35915858828489</v>
       </c>
       <c r="N19" t="n">
-        <v>18.87001377043234</v>
+        <v>6.495011573772175</v>
       </c>
       <c r="O19" t="n">
-        <v>34.1328474727371</v>
+        <v>29.86948773478789</v>
       </c>
       <c r="P19" t="n">
-        <v>81.90931539612127</v>
+        <v>29.8560608566889</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.753071306989364</v>
+        <v>67.86020708005533</v>
       </c>
       <c r="R19" t="n">
-        <v>28.15601257636663</v>
+        <v>42.26081376033106</v>
       </c>
       <c r="S19" t="n">
-        <v>1.350774777939465</v>
+        <v>52.21341200176825</v>
       </c>
       <c r="T19" t="n">
-        <v>19.9780901299767</v>
+        <v>14.38272216764084</v>
       </c>
       <c r="U19" t="n">
-        <v>71.04921983157365</v>
+        <v>45.69324659018863</v>
       </c>
       <c r="V19" t="n">
-        <v>19.4176065358795</v>
+        <v>16.76732461376039</v>
       </c>
       <c r="W19" t="n">
-        <v>42.27525003219307</v>
+        <v>4.586785911050619</v>
       </c>
       <c r="X19" t="n">
-        <v>4.643976832825439</v>
+        <v>7.983621673681382</v>
       </c>
       <c r="Y19" t="n">
-        <v>23.45898870433133</v>
+        <v>30.11616840785462</v>
       </c>
       <c r="Z19" t="n">
-        <v>3.784481912770523</v>
+        <v>3.504919617072071</v>
       </c>
       <c r="AA19" t="n">
-        <v>0</v>
+        <v>66.49562722231343</v>
       </c>
       <c r="AB19" t="n">
-        <v>35.19089437089808</v>
+        <v>23.75521864158299</v>
       </c>
       <c r="AC19" t="n">
-        <v>14.85510395045586</v>
+        <v>2.323625023017138</v>
       </c>
       <c r="AD19" t="n">
-        <v>6.996402509507891</v>
+        <v>34.20137918301283</v>
       </c>
       <c r="AE19" t="n">
-        <v>16.96481846726417</v>
+        <v>19.08077589335677</v>
       </c>
       <c r="AF19" t="n">
-        <v>7.537715935833941</v>
+        <v>8.697424760537379</v>
       </c>
       <c r="AG19" t="n">
-        <v>1.982927587577023</v>
+        <v>4.285618522536076</v>
       </c>
       <c r="AH19" t="n">
-        <v>5.966247035959347</v>
+        <v>4.590444626975452</v>
       </c>
       <c r="AI19" t="n">
-        <v>0</v>
+        <v>20.97440084154127</v>
       </c>
       <c r="AJ19" t="n">
-        <v>3.944528354231058</v>
+        <v>2.493087457813933</v>
       </c>
       <c r="AK19" t="n">
-        <v>14.84067300999347</v>
+        <v>5.092408187382085</v>
       </c>
       <c r="AL19" t="n">
-        <v>21.09181566539602</v>
+        <v>20.00611095736722</v>
       </c>
       <c r="AM19" t="n">
-        <v>75.48044040651223</v>
+        <v>3.812763460477334</v>
       </c>
       <c r="AN19" t="n">
-        <v>16.66980909825034</v>
+        <v>6.866042042075291</v>
       </c>
       <c r="AO19" t="n">
-        <v>5.696400645184527</v>
+        <v>33.52236874858785</v>
       </c>
       <c r="AP19" t="n">
-        <v>19.71818524581662</v>
+        <v>4.160653845983588</v>
       </c>
       <c r="AQ19" t="n">
-        <v>0</v>
+        <v>8.796961242835534</v>
       </c>
       <c r="AR19" t="n">
-        <v>18.15372883677749</v>
+        <v>3.934643215112768</v>
       </c>
       <c r="AS19" t="n">
-        <v>5.429304606519855</v>
+        <v>0.7270639019706966</v>
       </c>
       <c r="AT19" t="n">
-        <v>18.0968725451902</v>
+        <v>10.6703041666603</v>
       </c>
       <c r="AU19" t="n">
-        <v>6.44921997068972</v>
+        <v>3.221918876971651</v>
       </c>
       <c r="AV19" t="n">
-        <v>0.5025201142569301</v>
+        <v>10.91264625439132</v>
       </c>
       <c r="AW19" t="n">
-        <v>5.832021161354356</v>
+        <v>6.896407780196834</v>
       </c>
       <c r="AX19" t="n">
-        <v>10.71939077574051</v>
+        <v>10.0586229287418</v>
       </c>
     </row>
     <row r="20">
@@ -3429,148 +3429,148 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>15.31097062347887</v>
+        <v>8.672647616539363</v>
       </c>
       <c r="D20" t="n">
-        <v>19.08543791767165</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>35.64082003569228</v>
+        <v>26.51495642883215</v>
       </c>
       <c r="F20" t="n">
-        <v>26.03175009949921</v>
+        <v>12.71118828768847</v>
       </c>
       <c r="G20" t="n">
-        <v>32.55665704136592</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>44.57036632998873</v>
+        <v>23.65110714289985</v>
       </c>
       <c r="I20" t="n">
-        <v>19.05981472225508</v>
+        <v>44.54330604609758</v>
       </c>
       <c r="J20" t="n">
-        <v>28.50924835103803</v>
+        <v>85.71628460870521</v>
       </c>
       <c r="K20" t="n">
-        <v>74.44144221298544</v>
+        <v>37.50852818722421</v>
       </c>
       <c r="L20" t="n">
-        <v>44.23887635547533</v>
+        <v>154.3740063569001</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>41.94286735798053</v>
       </c>
       <c r="N20" t="n">
-        <v>83.10561513125356</v>
+        <v>80.21053231783456</v>
       </c>
       <c r="O20" t="n">
-        <v>74.73275454730319</v>
+        <v>28.05192776132274</v>
       </c>
       <c r="P20" t="n">
-        <v>93.08107495847953</v>
+        <v>13.80188696873125</v>
       </c>
       <c r="Q20" t="n">
-        <v>46.77247813210324</v>
+        <v>77.16443626735733</v>
       </c>
       <c r="R20" t="n">
-        <v>35.67622221713843</v>
+        <v>30.55451686025506</v>
       </c>
       <c r="S20" t="n">
-        <v>51.82122029447063</v>
+        <v>104.9880133440721</v>
       </c>
       <c r="T20" t="n">
-        <v>37.48149770784129</v>
+        <v>68.07688659733643</v>
       </c>
       <c r="U20" t="n">
-        <v>59.36151370034252</v>
+        <v>130.8025929235047</v>
       </c>
       <c r="V20" t="n">
-        <v>33.38638970273463</v>
+        <v>175.1452333638144</v>
       </c>
       <c r="W20" t="n">
-        <v>44.15647484393885</v>
+        <v>39.55720112817839</v>
       </c>
       <c r="X20" t="n">
-        <v>95.01599831150702</v>
+        <v>50.10818239557936</v>
       </c>
       <c r="Y20" t="n">
-        <v>138.2332073984071</v>
+        <v>90.35516343859625</v>
       </c>
       <c r="Z20" t="n">
-        <v>59.2356692894266</v>
+        <v>61.08927939647651</v>
       </c>
       <c r="AA20" t="n">
-        <v>144.5706794807056</v>
+        <v>103.1956570927864</v>
       </c>
       <c r="AB20" t="n">
-        <v>92.25601732998946</v>
+        <v>79.82874304601413</v>
       </c>
       <c r="AC20" t="n">
-        <v>120.4044511501327</v>
+        <v>111.1510636906515</v>
       </c>
       <c r="AD20" t="n">
-        <v>150.5181415707008</v>
+        <v>117.5029851163054</v>
       </c>
       <c r="AE20" t="n">
-        <v>172.6023450104239</v>
+        <v>175.8419199014963</v>
       </c>
       <c r="AF20" t="n">
-        <v>163.4242824249997</v>
+        <v>87.73612603936142</v>
       </c>
       <c r="AG20" t="n">
-        <v>144.8466540170786</v>
+        <v>39.71298989227529</v>
       </c>
       <c r="AH20" t="n">
-        <v>136.0717515332936</v>
+        <v>133.4088593459375</v>
       </c>
       <c r="AI20" t="n">
-        <v>111.7246090050085</v>
+        <v>166.7572512945032</v>
       </c>
       <c r="AJ20" t="n">
-        <v>45.94591522781144</v>
+        <v>129.6680707891893</v>
       </c>
       <c r="AK20" t="n">
-        <v>97.81925371288408</v>
+        <v>51.1769629055386</v>
       </c>
       <c r="AL20" t="n">
-        <v>30.20455127870774</v>
+        <v>26.71529498889072</v>
       </c>
       <c r="AM20" t="n">
-        <v>43.06437867852605</v>
+        <v>23.19549779165684</v>
       </c>
       <c r="AN20" t="n">
-        <v>17.40433139400039</v>
+        <v>25.5539985775553</v>
       </c>
       <c r="AO20" t="n">
-        <v>38.6311193074798</v>
+        <v>14.42659733034022</v>
       </c>
       <c r="AP20" t="n">
-        <v>39.72380607047938</v>
+        <v>23.97503988190055</v>
       </c>
       <c r="AQ20" t="n">
-        <v>26.5948541079047</v>
+        <v>16.58148427162195</v>
       </c>
       <c r="AR20" t="n">
-        <v>27.70202479208611</v>
+        <v>8.787947281640051</v>
       </c>
       <c r="AS20" t="n">
-        <v>21.75373084668513</v>
+        <v>17.43970920146131</v>
       </c>
       <c r="AT20" t="n">
-        <v>23.1468032618763</v>
+        <v>28.26221430735773</v>
       </c>
       <c r="AU20" t="n">
-        <v>26.1928114551599</v>
+        <v>22.84939560064343</v>
       </c>
       <c r="AV20" t="n">
-        <v>8.401908108642786</v>
+        <v>22.95536351280735</v>
       </c>
       <c r="AW20" t="n">
-        <v>13.09597065551583</v>
+        <v>27.65955163950919</v>
       </c>
       <c r="AX20" t="n">
-        <v>24.36507198517085</v>
+        <v>13.41633741150414</v>
       </c>
     </row>
     <row r="21">
@@ -3581,148 +3581,148 @@
         <v>4</v>
       </c>
       <c r="C21" t="n">
-        <v>2.783134314652883</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>3.506302577723938</v>
+        <v>1.281640598764298</v>
       </c>
       <c r="E21" t="n">
-        <v>9.958914682649651</v>
+        <v>2.688242278921722</v>
       </c>
       <c r="F21" t="n">
-        <v>1.847557433761936</v>
+        <v>5.927212132796127</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0.4464371103937711</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>2.377061697978966</v>
+        <v>2.141656635222394</v>
       </c>
       <c r="J21" t="n">
-        <v>2.562851247133033</v>
+        <v>5.318015654305166</v>
       </c>
       <c r="K21" t="n">
-        <v>3.70804440851767</v>
+        <v>4.237213559432393</v>
       </c>
       <c r="L21" t="n">
-        <v>1.724038871519917</v>
+        <v>0.8871001920282767</v>
       </c>
       <c r="M21" t="n">
-        <v>3.928994273920072</v>
+        <v>2.874259849049449</v>
       </c>
       <c r="N21" t="n">
-        <v>1.464912595751366</v>
+        <v>6.407346817626879</v>
       </c>
       <c r="O21" t="n">
-        <v>4.826515947097933</v>
+        <v>7.530814359822628</v>
       </c>
       <c r="P21" t="n">
-        <v>1.055337651175114</v>
+        <v>8.822926085062209</v>
       </c>
       <c r="Q21" t="n">
-        <v>14.29700382356282</v>
+        <v>2.801438457142476</v>
       </c>
       <c r="R21" t="n">
-        <v>2.162063709572856</v>
+        <v>3.581341803758177</v>
       </c>
       <c r="S21" t="n">
-        <v>1.250157374327587</v>
+        <v>10.35798426830989</v>
       </c>
       <c r="T21" t="n">
-        <v>4.290036626452178</v>
+        <v>4.16438501080318</v>
       </c>
       <c r="U21" t="n">
-        <v>3.073440051152585</v>
+        <v>9.331074644663174</v>
       </c>
       <c r="V21" t="n">
-        <v>3.021193363714816</v>
+        <v>3.690741193638327</v>
       </c>
       <c r="W21" t="n">
-        <v>8.34796768444885</v>
+        <v>4.982639994849277</v>
       </c>
       <c r="X21" t="n">
-        <v>2.127816726092494</v>
+        <v>11.61025637556101</v>
       </c>
       <c r="Y21" t="n">
-        <v>4.031418389730502</v>
+        <v>2.01983978898349</v>
       </c>
       <c r="Z21" t="n">
-        <v>3.775032909254594</v>
+        <v>3.501798290423346</v>
       </c>
       <c r="AA21" t="n">
-        <v>6.677451861741407</v>
+        <v>5.978438049823566</v>
       </c>
       <c r="AB21" t="n">
-        <v>4.524764182713643</v>
+        <v>3.017278898105208</v>
       </c>
       <c r="AC21" t="n">
-        <v>5.52135432693605</v>
+        <v>6.663958714570892</v>
       </c>
       <c r="AD21" t="n">
-        <v>3.769838719252981</v>
+        <v>4.278326026537127</v>
       </c>
       <c r="AE21" t="n">
-        <v>4.338915065638859</v>
+        <v>7.210920742982688</v>
       </c>
       <c r="AF21" t="n">
-        <v>2.665588410054511</v>
+        <v>6.225161702564965</v>
       </c>
       <c r="AG21" t="n">
-        <v>5.807198804252033</v>
+        <v>1.869841277499712</v>
       </c>
       <c r="AH21" t="n">
-        <v>7.0753793719322</v>
+        <v>4.769285714085339</v>
       </c>
       <c r="AI21" t="n">
-        <v>5.28769401593189</v>
+        <v>6.302046378973079</v>
       </c>
       <c r="AJ21" t="n">
-        <v>5.216928717475774</v>
+        <v>5.355988146222334</v>
       </c>
       <c r="AK21" t="n">
-        <v>3.353101288335262</v>
+        <v>3.747779380872722</v>
       </c>
       <c r="AL21" t="n">
-        <v>1.497816266496463</v>
+        <v>4.262539181306965</v>
       </c>
       <c r="AM21" t="n">
-        <v>5.248002436299137</v>
+        <v>2.628874242013917</v>
       </c>
       <c r="AN21" t="n">
-        <v>8.083917790744945</v>
+        <v>5.419834225638974</v>
       </c>
       <c r="AO21" t="n">
-        <v>3.359573071524291</v>
+        <v>1.735520837386485</v>
       </c>
       <c r="AP21" t="n">
-        <v>3.688799023394369</v>
+        <v>2.258242320711952</v>
       </c>
       <c r="AQ21" t="n">
-        <v>2.670934256968424</v>
+        <v>6.030330054811338</v>
       </c>
       <c r="AR21" t="n">
-        <v>9.06888840321675</v>
+        <v>4.72568141564939</v>
       </c>
       <c r="AS21" t="n">
-        <v>5.937121149339033</v>
+        <v>2.579465398011362</v>
       </c>
       <c r="AT21" t="n">
-        <v>4.745210182595989</v>
+        <v>5.214051818864026</v>
       </c>
       <c r="AU21" t="n">
-        <v>1.930686700318839</v>
+        <v>1.380255816816407</v>
       </c>
       <c r="AV21" t="n">
-        <v>0.4765709815406016</v>
+        <v>1.282759945145383</v>
       </c>
       <c r="AW21" t="n">
-        <v>3.485754263543641</v>
+        <v>4.058145868241505</v>
       </c>
       <c r="AX21" t="n">
-        <v>2.688924418337617</v>
+        <v>5.297946087781195</v>
       </c>
     </row>
     <row r="22">
@@ -3733,148 +3733,148 @@
         <v>4</v>
       </c>
       <c r="C22" t="n">
-        <v>9.69308781613768</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>15.30137356543407</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>34.58844406106763</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>20.95258934992913</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>4.320778396154058</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>15.34643038662193</v>
       </c>
       <c r="I22" t="n">
-        <v>139.1959072407416</v>
+        <v>4.921183813739774</v>
       </c>
       <c r="J22" t="n">
-        <v>43.28426178240531</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>76.41651448437871</v>
       </c>
       <c r="L22" t="n">
-        <v>116.1941517208204</v>
+        <v>216.6493718746717</v>
       </c>
       <c r="M22" t="n">
-        <v>54.69262576114425</v>
+        <v>38.35667624446101</v>
       </c>
       <c r="N22" t="n">
-        <v>65.08844049438251</v>
+        <v>270.8280849758674</v>
       </c>
       <c r="O22" t="n">
-        <v>54.29294465612043</v>
+        <v>29.71807061006488</v>
       </c>
       <c r="P22" t="n">
-        <v>31.10121482207973</v>
+        <v>14.88733440703622</v>
       </c>
       <c r="Q22" t="n">
-        <v>26.20141004191729</v>
+        <v>33.47435207244972</v>
       </c>
       <c r="R22" t="n">
-        <v>42.22226809086478</v>
+        <v>85.193293933826</v>
       </c>
       <c r="S22" t="n">
-        <v>15.58160907807169</v>
+        <v>55.70269169641796</v>
       </c>
       <c r="T22" t="n">
-        <v>35.33997893404662</v>
+        <v>44.61461220080726</v>
       </c>
       <c r="U22" t="n">
-        <v>78.04780853089692</v>
+        <v>23.42549326586946</v>
       </c>
       <c r="V22" t="n">
-        <v>29.06786929988234</v>
+        <v>33.4164398279525</v>
       </c>
       <c r="W22" t="n">
-        <v>54.70140242165084</v>
+        <v>100.93000503532</v>
       </c>
       <c r="X22" t="n">
-        <v>93.31140235667417</v>
+        <v>194.5670671412192</v>
       </c>
       <c r="Y22" t="n">
-        <v>51.91181112227302</v>
+        <v>77.69248250217224</v>
       </c>
       <c r="Z22" t="n">
-        <v>58.8979512703925</v>
+        <v>51.6951668784998</v>
       </c>
       <c r="AA22" t="n">
-        <v>56.40940149810711</v>
+        <v>99.8616593489501</v>
       </c>
       <c r="AB22" t="n">
-        <v>53.54916023825503</v>
+        <v>87.585693253843</v>
       </c>
       <c r="AC22" t="n">
-        <v>35.68772656793413</v>
+        <v>63.44401459572244</v>
       </c>
       <c r="AD22" t="n">
-        <v>59.69159665157957</v>
+        <v>86.82924455776781</v>
       </c>
       <c r="AE22" t="n">
-        <v>65.65859701387011</v>
+        <v>69.15929661999044</v>
       </c>
       <c r="AF22" t="n">
-        <v>59.94173827716967</v>
+        <v>40.7458818875593</v>
       </c>
       <c r="AG22" t="n">
-        <v>83.23685970847596</v>
+        <v>108.252934217709</v>
       </c>
       <c r="AH22" t="n">
-        <v>34.08445701328097</v>
+        <v>50.6137540180887</v>
       </c>
       <c r="AI22" t="n">
-        <v>52.76015975163098</v>
+        <v>66.1381645727306</v>
       </c>
       <c r="AJ22" t="n">
-        <v>92.79581186292776</v>
+        <v>17.57350393984085</v>
       </c>
       <c r="AK22" t="n">
-        <v>29.68141474184605</v>
+        <v>44.47784105128449</v>
       </c>
       <c r="AL22" t="n">
-        <v>2.014046402795588</v>
+        <v>62.15937753697338</v>
       </c>
       <c r="AM22" t="n">
-        <v>53.49209929704042</v>
+        <v>55.43794123864658</v>
       </c>
       <c r="AN22" t="n">
-        <v>43.86929747506801</v>
+        <v>44.33681249595222</v>
       </c>
       <c r="AO22" t="n">
-        <v>18.9068465091523</v>
+        <v>14.10580012387787</v>
       </c>
       <c r="AP22" t="n">
-        <v>2.692830810967352</v>
+        <v>31.88119001377637</v>
       </c>
       <c r="AQ22" t="n">
-        <v>10.72236597817409</v>
+        <v>23.59297605880502</v>
       </c>
       <c r="AR22" t="n">
-        <v>16.61037914615694</v>
+        <v>18.90003688567979</v>
       </c>
       <c r="AS22" t="n">
-        <v>9.763180849377564</v>
+        <v>15.36383230609575</v>
       </c>
       <c r="AT22" t="n">
-        <v>6.041043338897087</v>
+        <v>16.24696465661187</v>
       </c>
       <c r="AU22" t="n">
-        <v>12.0463514126805</v>
+        <v>22.92676585157268</v>
       </c>
       <c r="AV22" t="n">
-        <v>32.5885801183563</v>
+        <v>18.37075565592624</v>
       </c>
       <c r="AW22" t="n">
-        <v>10.587142417569</v>
+        <v>10.92425623039646</v>
       </c>
       <c r="AX22" t="n">
-        <v>9.467653051679703</v>
+        <v>10.70917501452374</v>
       </c>
     </row>
     <row r="23">
@@ -3885,148 +3885,148 @@
         <v>4</v>
       </c>
       <c r="C23" t="n">
-        <v>19.23255139668768</v>
+        <v>1.324345536709917</v>
       </c>
       <c r="D23" t="n">
-        <v>0.8816634042526408</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>29.33537554150121</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>35.37238163905906</v>
+        <v>0.009096930873707443</v>
       </c>
       <c r="G23" t="n">
-        <v>12.49793676638721</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>14.1147741306764</v>
+        <v>44.3511282288251</v>
       </c>
       <c r="I23" t="n">
-        <v>21.47157791968348</v>
+        <v>4.779286302037097</v>
       </c>
       <c r="J23" t="n">
-        <v>109.6613288786097</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>11.68354312322748</v>
+        <v>97.23474056587963</v>
       </c>
       <c r="L23" t="n">
-        <v>25.4497319393564</v>
+        <v>8.924108297092504</v>
       </c>
       <c r="M23" t="n">
-        <v>90.20877309610115</v>
+        <v>4.44791946826072</v>
       </c>
       <c r="N23" t="n">
-        <v>64.72279858376942</v>
+        <v>82.27856991415416</v>
       </c>
       <c r="O23" t="n">
-        <v>12.18854934836643</v>
+        <v>18.60562185430857</v>
       </c>
       <c r="P23" t="n">
-        <v>43.9517953398237</v>
+        <v>29.43880931903099</v>
       </c>
       <c r="Q23" t="n">
-        <v>25.77085675499138</v>
+        <v>20.39673304338277</v>
       </c>
       <c r="R23" t="n">
-        <v>7.467473529718188</v>
+        <v>24.81054991069898</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>84.35470025672905</v>
       </c>
       <c r="T23" t="n">
-        <v>4.557161214218759</v>
+        <v>18.98025964954726</v>
       </c>
       <c r="U23" t="n">
-        <v>30.22143192181354</v>
+        <v>34.08172200161409</v>
       </c>
       <c r="V23" t="n">
-        <v>73.46128077863348</v>
+        <v>109.4866878449697</v>
       </c>
       <c r="W23" t="n">
-        <v>28.12515426292939</v>
+        <v>128.8832422059049</v>
       </c>
       <c r="X23" t="n">
-        <v>35.47666813672371</v>
+        <v>44.64197430587351</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>12.8163737597843</v>
       </c>
       <c r="Z23" t="n">
-        <v>141.747832696923</v>
+        <v>46.1272972305986</v>
       </c>
       <c r="AA23" t="n">
-        <v>50.25412520531791</v>
+        <v>33.92994025860211</v>
       </c>
       <c r="AB23" t="n">
         <v>0</v>
       </c>
       <c r="AC23" t="n">
-        <v>44.56053479389926</v>
+        <v>53.97854346282984</v>
       </c>
       <c r="AD23" t="n">
-        <v>34.32421439670307</v>
+        <v>29.3722976241846</v>
       </c>
       <c r="AE23" t="n">
-        <v>52.14773236010389</v>
+        <v>19.11201165636291</v>
       </c>
       <c r="AF23" t="n">
-        <v>30.56101457618741</v>
+        <v>40.91298978217637</v>
       </c>
       <c r="AG23" t="n">
-        <v>41.84718364105148</v>
+        <v>11.1877921275947</v>
       </c>
       <c r="AH23" t="n">
-        <v>18.24628147518771</v>
+        <v>43.52395610917528</v>
       </c>
       <c r="AI23" t="n">
-        <v>37.28164812398907</v>
+        <v>0</v>
       </c>
       <c r="AJ23" t="n">
-        <v>25.52385064571491</v>
+        <v>24.5291442151145</v>
       </c>
       <c r="AK23" t="n">
-        <v>45.12164862363318</v>
+        <v>29.52012563131556</v>
       </c>
       <c r="AL23" t="n">
-        <v>0.6959273205450127</v>
+        <v>22.64510460226052</v>
       </c>
       <c r="AM23" t="n">
-        <v>52.45657562848611</v>
+        <v>11.41452717007022</v>
       </c>
       <c r="AN23" t="n">
-        <v>25.8093647022779</v>
+        <v>23.36215949442814</v>
       </c>
       <c r="AO23" t="n">
-        <v>28.10489243901014</v>
+        <v>27.97005143184818</v>
       </c>
       <c r="AP23" t="n">
-        <v>24.93105843491297</v>
+        <v>21.04458864849252</v>
       </c>
       <c r="AQ23" t="n">
-        <v>21.32117630758997</v>
+        <v>48.46492140026015</v>
       </c>
       <c r="AR23" t="n">
-        <v>30.00071479596441</v>
+        <v>25.57097447241714</v>
       </c>
       <c r="AS23" t="n">
-        <v>24.00832137987519</v>
+        <v>18.33781269179911</v>
       </c>
       <c r="AT23" t="n">
-        <v>22.88616802558093</v>
+        <v>21.41590346270651</v>
       </c>
       <c r="AU23" t="n">
-        <v>6.89002638591756</v>
+        <v>19.77449978520534</v>
       </c>
       <c r="AV23" t="n">
-        <v>31.05444289773004</v>
+        <v>31.91491358533029</v>
       </c>
       <c r="AW23" t="n">
-        <v>23.85956731621106</v>
+        <v>25.70584121613091</v>
       </c>
       <c r="AX23" t="n">
-        <v>24.46105441522118</v>
+        <v>18.59894662450703</v>
       </c>
     </row>
     <row r="24">
@@ -4037,148 +4037,148 @@
         <v>4</v>
       </c>
       <c r="C24" t="n">
-        <v>3.587423919737699</v>
+        <v>3.334639010382233</v>
       </c>
       <c r="D24" t="n">
-        <v>10.03566945277853</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>8.842591013812481</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>49.9504436605203</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>30.98805189703566</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0.2502378748301837</v>
+        <v>1.176609996217625</v>
       </c>
       <c r="I24" t="n">
-        <v>0.409601976411853</v>
+        <v>13.46079960134999</v>
       </c>
       <c r="J24" t="n">
-        <v>6.085114368350549</v>
+        <v>54.8299366115106</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>0.9898707567394198</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>22.73881330097347</v>
       </c>
       <c r="M24" t="n">
-        <v>15.4429320211908</v>
+        <v>63.20058888378253</v>
       </c>
       <c r="N24" t="n">
-        <v>16.81436204529773</v>
+        <v>32.93258194197129</v>
       </c>
       <c r="O24" t="n">
-        <v>61.29591483650228</v>
+        <v>23.14591723914386</v>
       </c>
       <c r="P24" t="n">
-        <v>12.45293277886899</v>
+        <v>12.89499252589191</v>
       </c>
       <c r="Q24" t="n">
-        <v>22.38804500154061</v>
+        <v>26.76114638174376</v>
       </c>
       <c r="R24" t="n">
-        <v>15.88302660568705</v>
+        <v>23.40922779773187</v>
       </c>
       <c r="S24" t="n">
-        <v>18.49566306302437</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>103.9957428989898</v>
+        <v>23.74851899974338</v>
       </c>
       <c r="U24" t="n">
-        <v>10.08357834885303</v>
+        <v>16.34329346931154</v>
       </c>
       <c r="V24" t="n">
-        <v>39.17270934217416</v>
+        <v>37.81936974881557</v>
       </c>
       <c r="W24" t="n">
-        <v>11.68475867366247</v>
+        <v>32.59545337661058</v>
       </c>
       <c r="X24" t="n">
-        <v>19.66264289444783</v>
+        <v>6.46364654453876</v>
       </c>
       <c r="Y24" t="n">
-        <v>5.370315031293353</v>
+        <v>42.65588617841134</v>
       </c>
       <c r="Z24" t="n">
-        <v>6.915797630750592</v>
+        <v>16.41799853306118</v>
       </c>
       <c r="AA24" t="n">
-        <v>16.67261410081596</v>
+        <v>18.30347779331798</v>
       </c>
       <c r="AB24" t="n">
-        <v>9.569757722604793</v>
+        <v>14.76627555221871</v>
       </c>
       <c r="AC24" t="n">
-        <v>25.36615348009634</v>
+        <v>17.80423771290356</v>
       </c>
       <c r="AD24" t="n">
-        <v>15.49828285350696</v>
+        <v>16.01116169656112</v>
       </c>
       <c r="AE24" t="n">
-        <v>15.10723004817824</v>
+        <v>21.09247141843181</v>
       </c>
       <c r="AF24" t="n">
-        <v>12.06564533265989</v>
+        <v>12.19224056737904</v>
       </c>
       <c r="AG24" t="n">
-        <v>4.550162141439842</v>
+        <v>11.17868316475121</v>
       </c>
       <c r="AH24" t="n">
-        <v>1.272846246188172</v>
+        <v>6.975945496715548</v>
       </c>
       <c r="AI24" t="n">
-        <v>2.906915440292084</v>
+        <v>22.10136182067188</v>
       </c>
       <c r="AJ24" t="n">
-        <v>16.36995247029239</v>
+        <v>6.982293856076266</v>
       </c>
       <c r="AK24" t="n">
-        <v>24.86149993669763</v>
+        <v>10.89761913009185</v>
       </c>
       <c r="AL24" t="n">
-        <v>2.248135239783347</v>
+        <v>2.865088354170622</v>
       </c>
       <c r="AM24" t="n">
-        <v>4.843054508089177</v>
+        <v>2.003320824655702</v>
       </c>
       <c r="AN24" t="n">
-        <v>1.938091963934371</v>
+        <v>2.236412906756359</v>
       </c>
       <c r="AO24" t="n">
-        <v>0.7391115013171002</v>
+        <v>6.480833730733865</v>
       </c>
       <c r="AP24" t="n">
-        <v>6.364048728745936</v>
+        <v>2.463062700109269</v>
       </c>
       <c r="AQ24" t="n">
-        <v>2.91849749358703</v>
+        <v>3.814543237201871</v>
       </c>
       <c r="AR24" t="n">
-        <v>1.889997973554729</v>
+        <v>5.253077045954374</v>
       </c>
       <c r="AS24" t="n">
-        <v>1.670902079693561</v>
+        <v>12.50307178308895</v>
       </c>
       <c r="AT24" t="n">
-        <v>2.093636507724873</v>
+        <v>5.463914861313861</v>
       </c>
       <c r="AU24" t="n">
-        <v>2.284179574614059</v>
+        <v>10.05606843731379</v>
       </c>
       <c r="AV24" t="n">
-        <v>4.303800524228988</v>
+        <v>4.068443699624109</v>
       </c>
       <c r="AW24" t="n">
-        <v>6.368460113913443</v>
+        <v>3.514926014601665</v>
       </c>
       <c r="AX24" t="n">
-        <v>0.868641807066045</v>
+        <v>2.89558714990312</v>
       </c>
     </row>
     <row r="25">
@@ -4189,148 +4189,148 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>3.233000329898811</v>
+        <v>69.87189887608675</v>
       </c>
       <c r="D25" t="n">
-        <v>19.28952098884385</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>10.47244375514537</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>4.639477824992564</v>
+        <v>13.8368289699106</v>
       </c>
       <c r="G25" t="n">
-        <v>23.31748233166059</v>
+        <v>8.05287476411759</v>
       </c>
       <c r="H25" t="n">
-        <v>55.83053719192927</v>
+        <v>11.35620617826269</v>
       </c>
       <c r="I25" t="n">
-        <v>43.91213260405794</v>
+        <v>21.34747820012672</v>
       </c>
       <c r="J25" t="n">
-        <v>22.87121048115781</v>
+        <v>11.08477079382603</v>
       </c>
       <c r="K25" t="n">
-        <v>39.9909837735846</v>
+        <v>30.24778371015784</v>
       </c>
       <c r="L25" t="n">
-        <v>32.83914160064551</v>
+        <v>48.49278941204958</v>
       </c>
       <c r="M25" t="n">
-        <v>125.1759705109777</v>
+        <v>67.73533614795456</v>
       </c>
       <c r="N25" t="n">
-        <v>17.9074808967906</v>
+        <v>50.81978031659607</v>
       </c>
       <c r="O25" t="n">
-        <v>75.77124974924219</v>
+        <v>19.78691408998923</v>
       </c>
       <c r="P25" t="n">
-        <v>30.70436157027016</v>
+        <v>16.97923061097707</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>100.4820707698521</v>
       </c>
       <c r="R25" t="n">
-        <v>65.66783879588979</v>
+        <v>11.06352744574659</v>
       </c>
       <c r="S25" t="n">
-        <v>16.45823865723701</v>
+        <v>0.8502600588620028</v>
       </c>
       <c r="T25" t="n">
-        <v>47.00232381868853</v>
+        <v>9.961716315328776</v>
       </c>
       <c r="U25" t="n">
-        <v>84.10999438066821</v>
+        <v>33.25498612441687</v>
       </c>
       <c r="V25" t="n">
-        <v>23.5377598455682</v>
+        <v>43.32823041454168</v>
       </c>
       <c r="W25" t="n">
-        <v>43.54245722330854</v>
+        <v>41.27416089914571</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>28.87925337573506</v>
       </c>
       <c r="Y25" t="n">
-        <v>24.51108458862918</v>
+        <v>4.949269160538513</v>
       </c>
       <c r="Z25" t="n">
-        <v>8.050926825974289</v>
+        <v>18.11853784247143</v>
       </c>
       <c r="AA25" t="n">
-        <v>0</v>
+        <v>4.764099134358895</v>
       </c>
       <c r="AB25" t="n">
-        <v>17.25019654835226</v>
+        <v>2.105887486587399</v>
       </c>
       <c r="AC25" t="n">
-        <v>9.257304579938904</v>
+        <v>16.4058832669847</v>
       </c>
       <c r="AD25" t="n">
-        <v>1.407672954439125</v>
+        <v>9.142064697557194</v>
       </c>
       <c r="AE25" t="n">
-        <v>27.84734443240987</v>
+        <v>55.99821478753442</v>
       </c>
       <c r="AF25" t="n">
-        <v>8.335846365204262</v>
+        <v>13.67783235688888</v>
       </c>
       <c r="AG25" t="n">
-        <v>8.123139727386182</v>
+        <v>4.563321419592151</v>
       </c>
       <c r="AH25" t="n">
-        <v>0</v>
+        <v>46.37850075632876</v>
       </c>
       <c r="AI25" t="n">
-        <v>3.104104371582321</v>
+        <v>3.273547080816027</v>
       </c>
       <c r="AJ25" t="n">
-        <v>1.631832954750386</v>
+        <v>0</v>
       </c>
       <c r="AK25" t="n">
-        <v>3.175428276775723</v>
+        <v>16.45158747559503</v>
       </c>
       <c r="AL25" t="n">
-        <v>0.2239271560918583</v>
+        <v>10.34696534951241</v>
       </c>
       <c r="AM25" t="n">
-        <v>11.89669643100887</v>
+        <v>0</v>
       </c>
       <c r="AN25" t="n">
-        <v>1.435638318809979</v>
+        <v>7.74381783603555</v>
       </c>
       <c r="AO25" t="n">
-        <v>6.60993498265098</v>
+        <v>0</v>
       </c>
       <c r="AP25" t="n">
-        <v>3.288135553092837</v>
+        <v>3.350335795667226</v>
       </c>
       <c r="AQ25" t="n">
-        <v>5.555212143599007</v>
+        <v>4.654832606968768</v>
       </c>
       <c r="AR25" t="n">
-        <v>0</v>
+        <v>0.007163664329334796</v>
       </c>
       <c r="AS25" t="n">
-        <v>2.522860883691453</v>
+        <v>18.89352026880119</v>
       </c>
       <c r="AT25" t="n">
-        <v>6.259425155937032</v>
+        <v>3.906492146003575</v>
       </c>
       <c r="AU25" t="n">
-        <v>7.286600551627229</v>
+        <v>2.207135448660445</v>
       </c>
       <c r="AV25" t="n">
-        <v>5.889183212017942</v>
+        <v>1.047487408886902</v>
       </c>
       <c r="AW25" t="n">
-        <v>0</v>
+        <v>1.809388388032215</v>
       </c>
       <c r="AX25" t="n">
-        <v>13.19106813955721</v>
+        <v>4.955141309925495</v>
       </c>
     </row>
     <row r="26">
@@ -4341,148 +4341,148 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>23.80248880057973</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>47.05657517143134</v>
+        <v>11.43210670070981</v>
       </c>
       <c r="E26" t="n">
-        <v>17.10173983182468</v>
+        <v>26.10011395234109</v>
       </c>
       <c r="F26" t="n">
-        <v>9.05361076988552</v>
+        <v>16.42115417584914</v>
       </c>
       <c r="G26" t="n">
-        <v>98.3628862748686</v>
+        <v>21.03583085895941</v>
       </c>
       <c r="H26" t="n">
-        <v>29.72465936337883</v>
+        <v>4.441464907340352</v>
       </c>
       <c r="I26" t="n">
-        <v>66.45809993229501</v>
+        <v>52.00491410392183</v>
       </c>
       <c r="J26" t="n">
-        <v>76.96955109739757</v>
+        <v>46.12032976431708</v>
       </c>
       <c r="K26" t="n">
-        <v>40.87812758386265</v>
+        <v>72.53368623695532</v>
       </c>
       <c r="L26" t="n">
-        <v>29.93861723229433</v>
+        <v>79.69705507585088</v>
       </c>
       <c r="M26" t="n">
-        <v>84.4759854917552</v>
+        <v>81.20413973905745</v>
       </c>
       <c r="N26" t="n">
-        <v>95.06155289819193</v>
+        <v>86.04072133959698</v>
       </c>
       <c r="O26" t="n">
-        <v>121.8813468175075</v>
+        <v>10.19461193785026</v>
       </c>
       <c r="P26" t="n">
-        <v>29.41014640652686</v>
+        <v>51.71803043197276</v>
       </c>
       <c r="Q26" t="n">
-        <v>33.1068382407886</v>
+        <v>54.64460763246742</v>
       </c>
       <c r="R26" t="n">
-        <v>54.1147106216881</v>
+        <v>2.912337429885909</v>
       </c>
       <c r="S26" t="n">
-        <v>58.39398253981324</v>
+        <v>71.54680403496423</v>
       </c>
       <c r="T26" t="n">
-        <v>119.2584089941959</v>
+        <v>100.2212433233862</v>
       </c>
       <c r="U26" t="n">
-        <v>54.80190750890051</v>
+        <v>24.78885507908805</v>
       </c>
       <c r="V26" t="n">
-        <v>38.07483318021179</v>
+        <v>64.02425363452136</v>
       </c>
       <c r="W26" t="n">
-        <v>54.91747598636366</v>
+        <v>24.49789456070173</v>
       </c>
       <c r="X26" t="n">
-        <v>24.26820047751664</v>
+        <v>50.7482277373965</v>
       </c>
       <c r="Y26" t="n">
-        <v>44.02318702064327</v>
+        <v>85.39170764724238</v>
       </c>
       <c r="Z26" t="n">
-        <v>57.03114492205876</v>
+        <v>60.60030424285671</v>
       </c>
       <c r="AA26" t="n">
-        <v>119.9873379973825</v>
+        <v>56.75784958481955</v>
       </c>
       <c r="AB26" t="n">
-        <v>100.4953592349519</v>
+        <v>110.8821667237366</v>
       </c>
       <c r="AC26" t="n">
-        <v>134.1946354102785</v>
+        <v>65.71814863254789</v>
       </c>
       <c r="AD26" t="n">
-        <v>87.05182275136654</v>
+        <v>95.99989348177746</v>
       </c>
       <c r="AE26" t="n">
-        <v>152.3362574223005</v>
+        <v>75.99505533751383</v>
       </c>
       <c r="AF26" t="n">
-        <v>104.8735399917327</v>
+        <v>91.31439310199403</v>
       </c>
       <c r="AG26" t="n">
-        <v>74.97513968916215</v>
+        <v>116.2704223465993</v>
       </c>
       <c r="AH26" t="n">
-        <v>107.6267506741821</v>
+        <v>49.46068768627257</v>
       </c>
       <c r="AI26" t="n">
-        <v>37.95710698927413</v>
+        <v>94.87872982243893</v>
       </c>
       <c r="AJ26" t="n">
-        <v>117.8370707146244</v>
+        <v>130.4627943587509</v>
       </c>
       <c r="AK26" t="n">
-        <v>138.9609079508335</v>
+        <v>136.4515246308318</v>
       </c>
       <c r="AL26" t="n">
-        <v>41.0896212957082</v>
+        <v>56.24817442919682</v>
       </c>
       <c r="AM26" t="n">
-        <v>66.9427473529547</v>
+        <v>35.67525068438118</v>
       </c>
       <c r="AN26" t="n">
-        <v>17.62429312423467</v>
+        <v>38.97304367307287</v>
       </c>
       <c r="AO26" t="n">
-        <v>20.82676806791309</v>
+        <v>54.98400878995306</v>
       </c>
       <c r="AP26" t="n">
-        <v>38.72318456756366</v>
+        <v>11.83041941846452</v>
       </c>
       <c r="AQ26" t="n">
-        <v>27.75002331675157</v>
+        <v>15.52293901667324</v>
       </c>
       <c r="AR26" t="n">
-        <v>63.79577701351756</v>
+        <v>14.70087155099608</v>
       </c>
       <c r="AS26" t="n">
-        <v>15.7469925643115</v>
+        <v>23.68669267350998</v>
       </c>
       <c r="AT26" t="n">
-        <v>21.56777241424015</v>
+        <v>9.993669378537728</v>
       </c>
       <c r="AU26" t="n">
-        <v>26.21388115472544</v>
+        <v>21.92384328310089</v>
       </c>
       <c r="AV26" t="n">
-        <v>20.86305179614142</v>
+        <v>9.862051899455343</v>
       </c>
       <c r="AW26" t="n">
-        <v>18.99529413152102</v>
+        <v>25.07311583121897</v>
       </c>
       <c r="AX26" t="n">
-        <v>24.59361496974342</v>
+        <v>20.00278211320783</v>
       </c>
     </row>
     <row r="27">
@@ -4493,148 +4493,148 @@
         <v>5</v>
       </c>
       <c r="C27" t="n">
-        <v>2.278925209156674</v>
+        <v>1.102701417116373</v>
       </c>
       <c r="D27" t="n">
-        <v>2.738874889609226</v>
+        <v>3.283172229106511</v>
       </c>
       <c r="E27" t="n">
-        <v>2.189079792913382</v>
+        <v>8.609644344568833</v>
       </c>
       <c r="F27" t="n">
-        <v>7.25827674093262</v>
+        <v>7.589712788094101</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>4.777836699635711</v>
       </c>
       <c r="H27" t="n">
-        <v>4.090867344930853</v>
+        <v>1.427888645511429</v>
       </c>
       <c r="I27" t="n">
-        <v>7.147913525440992</v>
+        <v>3.218357534174523</v>
       </c>
       <c r="J27" t="n">
-        <v>6.110968566246365</v>
+        <v>15.6679125260325</v>
       </c>
       <c r="K27" t="n">
-        <v>5.153852654613169</v>
+        <v>4.041939298594926</v>
       </c>
       <c r="L27" t="n">
-        <v>11.63967263383947</v>
+        <v>2.659325470644037</v>
       </c>
       <c r="M27" t="n">
-        <v>2.146143006021042</v>
+        <v>7.524574089800884</v>
       </c>
       <c r="N27" t="n">
-        <v>3.595849026196401</v>
+        <v>3.147866010330226</v>
       </c>
       <c r="O27" t="n">
-        <v>2.314841431702793</v>
+        <v>5.034213941952759</v>
       </c>
       <c r="P27" t="n">
-        <v>1.297918634107325</v>
+        <v>3.219999328893378</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>2.695449176252998</v>
       </c>
       <c r="R27" t="n">
-        <v>2.849681941396011</v>
+        <v>5.939654000362266</v>
       </c>
       <c r="S27" t="n">
-        <v>4.254349712630355</v>
+        <v>1.606789195293729</v>
       </c>
       <c r="T27" t="n">
-        <v>5.244392235684912</v>
+        <v>7.269233143314658</v>
       </c>
       <c r="U27" t="n">
-        <v>3.30407773315999</v>
+        <v>1.406616656915343</v>
       </c>
       <c r="V27" t="n">
-        <v>3.365313813120644</v>
+        <v>3.194864249880849</v>
       </c>
       <c r="W27" t="n">
-        <v>2.506932370716965</v>
+        <v>3.579471141179303</v>
       </c>
       <c r="X27" t="n">
-        <v>3.029200069149297</v>
+        <v>7.555385191194252</v>
       </c>
       <c r="Y27" t="n">
-        <v>3.833629210553107</v>
+        <v>5.460376629893284</v>
       </c>
       <c r="Z27" t="n">
-        <v>3.548756922349682</v>
+        <v>5.303676717728099</v>
       </c>
       <c r="AA27" t="n">
-        <v>5.749689327751415</v>
+        <v>5.96680841694709</v>
       </c>
       <c r="AB27" t="n">
-        <v>3.70447772634124</v>
+        <v>7.058881898403806</v>
       </c>
       <c r="AC27" t="n">
-        <v>6.839248747944894</v>
+        <v>7.68239586059447</v>
       </c>
       <c r="AD27" t="n">
-        <v>7.78378381179974</v>
+        <v>5.570232086166831</v>
       </c>
       <c r="AE27" t="n">
-        <v>7.482916391120424</v>
+        <v>6.493583051054429</v>
       </c>
       <c r="AF27" t="n">
-        <v>5.823890030031995</v>
+        <v>4.981121971666928</v>
       </c>
       <c r="AG27" t="n">
-        <v>5.139348217262161</v>
+        <v>5.657699125984405</v>
       </c>
       <c r="AH27" t="n">
-        <v>5.327702924779198</v>
+        <v>2.826921503846603</v>
       </c>
       <c r="AI27" t="n">
-        <v>6.319104959514345</v>
+        <v>0.5784119095886002</v>
       </c>
       <c r="AJ27" t="n">
-        <v>4.820746706796535</v>
+        <v>6.546018282551933</v>
       </c>
       <c r="AK27" t="n">
-        <v>5.788684375813736</v>
+        <v>4.196258885170766</v>
       </c>
       <c r="AL27" t="n">
-        <v>6.17625528235763</v>
+        <v>3.286038142069109</v>
       </c>
       <c r="AM27" t="n">
-        <v>5.799334286586988</v>
+        <v>4.810601544507744</v>
       </c>
       <c r="AN27" t="n">
-        <v>2.893517985373756</v>
+        <v>3.251589534477819</v>
       </c>
       <c r="AO27" t="n">
-        <v>4.501330081763273</v>
+        <v>6.245975391922794</v>
       </c>
       <c r="AP27" t="n">
-        <v>4.863967901262678</v>
+        <v>5.967099039921778</v>
       </c>
       <c r="AQ27" t="n">
-        <v>5.647575487920924</v>
+        <v>5.709680508624627</v>
       </c>
       <c r="AR27" t="n">
-        <v>4.097313224226197</v>
+        <v>2.384207114066915</v>
       </c>
       <c r="AS27" t="n">
-        <v>3.125481029178371</v>
+        <v>4.39132169333425</v>
       </c>
       <c r="AT27" t="n">
-        <v>3.382618836212627</v>
+        <v>5.193046804342568</v>
       </c>
       <c r="AU27" t="n">
-        <v>4.963954986172425</v>
+        <v>8.206236551540703</v>
       </c>
       <c r="AV27" t="n">
-        <v>0.6926868447706023</v>
+        <v>2.517108626594549</v>
       </c>
       <c r="AW27" t="n">
-        <v>3.240546873991408</v>
+        <v>1.707646003600062</v>
       </c>
       <c r="AX27" t="n">
-        <v>2.258938334689583</v>
+        <v>0.3757602657220946</v>
       </c>
     </row>
     <row r="28">
@@ -4645,148 +4645,148 @@
         <v>5</v>
       </c>
       <c r="C28" t="n">
-        <v>10.11633808371327</v>
+        <v>6.883933493027832</v>
       </c>
       <c r="D28" t="n">
-        <v>70.47218936855373</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>35.69974439817033</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>33.04266626502851</v>
+        <v>13.38975220529445</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>25.12534466159961</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>2.091803045152377</v>
       </c>
       <c r="J28" t="n">
-        <v>13.57870593931446</v>
+        <v>4.332429856832318</v>
       </c>
       <c r="K28" t="n">
-        <v>30.53070293774258</v>
+        <v>160.8131376039217</v>
       </c>
       <c r="L28" t="n">
-        <v>18.11792042054384</v>
+        <v>25.6833751912923</v>
       </c>
       <c r="M28" t="n">
-        <v>49.63050509717474</v>
+        <v>36.1132286249383</v>
       </c>
       <c r="N28" t="n">
-        <v>116.7842694181223</v>
+        <v>115.7000837773077</v>
       </c>
       <c r="O28" t="n">
-        <v>69.58711963579776</v>
+        <v>55.79903482216687</v>
       </c>
       <c r="P28" t="n">
-        <v>33.43453713457462</v>
+        <v>27.20478180738291</v>
       </c>
       <c r="Q28" t="n">
-        <v>47.64085964122837</v>
+        <v>70.88228595045027</v>
       </c>
       <c r="R28" t="n">
-        <v>39.41450331895553</v>
+        <v>46.86716826464504</v>
       </c>
       <c r="S28" t="n">
-        <v>54.26070037786184</v>
+        <v>50.79641373326216</v>
       </c>
       <c r="T28" t="n">
-        <v>41.4034484482714</v>
+        <v>30.00468748096363</v>
       </c>
       <c r="U28" t="n">
-        <v>97.81096917628527</v>
+        <v>48.16228405733121</v>
       </c>
       <c r="V28" t="n">
-        <v>74.34249941628894</v>
+        <v>110.3655491399801</v>
       </c>
       <c r="W28" t="n">
-        <v>46.18882654094444</v>
+        <v>65.59541457940034</v>
       </c>
       <c r="X28" t="n">
-        <v>32.65871562499876</v>
+        <v>98.05108493561634</v>
       </c>
       <c r="Y28" t="n">
-        <v>66.66921628326993</v>
+        <v>104.7151862141284</v>
       </c>
       <c r="Z28" t="n">
-        <v>65.6629117430885</v>
+        <v>76.37557976374242</v>
       </c>
       <c r="AA28" t="n">
-        <v>52.90470262589493</v>
+        <v>64.71551007743359</v>
       </c>
       <c r="AB28" t="n">
-        <v>44.6045714454835</v>
+        <v>75.94693871841984</v>
       </c>
       <c r="AC28" t="n">
-        <v>86.27894732222407</v>
+        <v>99.37448979549396</v>
       </c>
       <c r="AD28" t="n">
-        <v>64.18871613755088</v>
+        <v>103.0035353171543</v>
       </c>
       <c r="AE28" t="n">
-        <v>84.50331099381076</v>
+        <v>91.0581393022257</v>
       </c>
       <c r="AF28" t="n">
-        <v>76.51078397514502</v>
+        <v>83.60022572891343</v>
       </c>
       <c r="AG28" t="n">
-        <v>52.23959272599488</v>
+        <v>40.96010157892729</v>
       </c>
       <c r="AH28" t="n">
-        <v>73.07954319901025</v>
+        <v>50.33567089730037</v>
       </c>
       <c r="AI28" t="n">
-        <v>51.38738644925273</v>
+        <v>47.08808034994638</v>
       </c>
       <c r="AJ28" t="n">
-        <v>32.65800949839609</v>
+        <v>59.50238506832001</v>
       </c>
       <c r="AK28" t="n">
-        <v>51.39835643687306</v>
+        <v>63.26152024240955</v>
       </c>
       <c r="AL28" t="n">
-        <v>16.7868689460487</v>
+        <v>26.11564196127847</v>
       </c>
       <c r="AM28" t="n">
-        <v>14.21165061167028</v>
+        <v>15.24926670141736</v>
       </c>
       <c r="AN28" t="n">
-        <v>21.12240751190705</v>
+        <v>15.21914295599097</v>
       </c>
       <c r="AO28" t="n">
-        <v>15.82399840949784</v>
+        <v>13.90951056805558</v>
       </c>
       <c r="AP28" t="n">
-        <v>18.53748656968395</v>
+        <v>18.23654132255064</v>
       </c>
       <c r="AQ28" t="n">
-        <v>23.93718434429629</v>
+        <v>14.96582536679291</v>
       </c>
       <c r="AR28" t="n">
-        <v>4.559261337874712</v>
+        <v>27.05214412717173</v>
       </c>
       <c r="AS28" t="n">
-        <v>14.47621811202518</v>
+        <v>24.01714400940453</v>
       </c>
       <c r="AT28" t="n">
-        <v>17.40687820081641</v>
+        <v>6.493518730325738</v>
       </c>
       <c r="AU28" t="n">
-        <v>9.64822067158639</v>
+        <v>26.15785061236101</v>
       </c>
       <c r="AV28" t="n">
-        <v>16.24348527560463</v>
+        <v>4.919848071574688</v>
       </c>
       <c r="AW28" t="n">
-        <v>4.352503242181912</v>
+        <v>7.20794116939643</v>
       </c>
       <c r="AX28" t="n">
-        <v>17.77523321472601</v>
+        <v>17.26962035448792</v>
       </c>
     </row>
     <row r="29">
@@ -4797,148 +4797,148 @@
         <v>5</v>
       </c>
       <c r="C29" t="n">
-        <v>16.20444431535525</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>14.31714400433939</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>6.975774091021473</v>
+        <v>27.70273835484579</v>
       </c>
       <c r="F29" t="n">
-        <v>12.51756410478957</v>
+        <v>4.572601115673068</v>
       </c>
       <c r="G29" t="n">
-        <v>4.21774453980818</v>
+        <v>19.87443786377303</v>
       </c>
       <c r="H29" t="n">
-        <v>15.584595323417</v>
+        <v>31.91239624343711</v>
       </c>
       <c r="I29" t="n">
-        <v>20.77647734405135</v>
+        <v>26.31160234009607</v>
       </c>
       <c r="J29" t="n">
-        <v>58.73124359420691</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>7.302169830316491</v>
+        <v>22.49525979125162</v>
       </c>
       <c r="L29" t="n">
-        <v>17.01415673773302</v>
+        <v>43.36538700579506</v>
       </c>
       <c r="M29" t="n">
-        <v>208.5144186043044</v>
+        <v>78.17459232493671</v>
       </c>
       <c r="N29" t="n">
-        <v>44.24578258145552</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>90.88895765706013</v>
+        <v>43.87098728672564</v>
       </c>
       <c r="P29" t="n">
-        <v>38.13375011759712</v>
+        <v>26.89231282516452</v>
       </c>
       <c r="Q29" t="n">
-        <v>162.6601580747101</v>
+        <v>34.83025154781262</v>
       </c>
       <c r="R29" t="n">
-        <v>54.50320292669509</v>
+        <v>21.77710091024387</v>
       </c>
       <c r="S29" t="n">
-        <v>49.07899017798444</v>
+        <v>24.19418670597949</v>
       </c>
       <c r="T29" t="n">
-        <v>80.78481248216046</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>66.75809775116215</v>
+        <v>177.1257052195275</v>
       </c>
       <c r="V29" t="n">
-        <v>14.29293594792005</v>
+        <v>25.61176965981773</v>
       </c>
       <c r="W29" t="n">
-        <v>35.41500555952132</v>
+        <v>45.14752477661734</v>
       </c>
       <c r="X29" t="n">
-        <v>112.1259981121756</v>
+        <v>120.7355457556047</v>
       </c>
       <c r="Y29" t="n">
-        <v>42.84945491616878</v>
+        <v>0</v>
       </c>
       <c r="Z29" t="n">
-        <v>0</v>
+        <v>30.71565984649141</v>
       </c>
       <c r="AA29" t="n">
-        <v>22.14510949669305</v>
+        <v>64.53265774227127</v>
       </c>
       <c r="AB29" t="n">
-        <v>22.5516062724371</v>
+        <v>37.37174386814783</v>
       </c>
       <c r="AC29" t="n">
-        <v>62.60549821257077</v>
+        <v>28.65597886601711</v>
       </c>
       <c r="AD29" t="n">
-        <v>30.01478583754426</v>
+        <v>11.7564137212737</v>
       </c>
       <c r="AE29" t="n">
-        <v>74.65973251833829</v>
+        <v>54.93813019518521</v>
       </c>
       <c r="AF29" t="n">
-        <v>22.66147826437532</v>
+        <v>0.9620631925690422</v>
       </c>
       <c r="AG29" t="n">
-        <v>46.1815701493389</v>
+        <v>41.71558530323935</v>
       </c>
       <c r="AH29" t="n">
-        <v>29.86824545655202</v>
+        <v>22.97937563228406</v>
       </c>
       <c r="AI29" t="n">
-        <v>11.41373694744644</v>
+        <v>25.52225512447701</v>
       </c>
       <c r="AJ29" t="n">
-        <v>26.96971380891586</v>
+        <v>100.1653860923959</v>
       </c>
       <c r="AK29" t="n">
-        <v>14.42020659230813</v>
+        <v>72.11832549195523</v>
       </c>
       <c r="AL29" t="n">
-        <v>26.58806365330443</v>
+        <v>6.218601329703599</v>
       </c>
       <c r="AM29" t="n">
-        <v>25.41212174744818</v>
+        <v>17.05044112780461</v>
       </c>
       <c r="AN29" t="n">
-        <v>22.29457069557183</v>
+        <v>24.89119492754069</v>
       </c>
       <c r="AO29" t="n">
-        <v>32.96799425226843</v>
+        <v>24.73326984849327</v>
       </c>
       <c r="AP29" t="n">
-        <v>23.99956206489584</v>
+        <v>4.316243279339254</v>
       </c>
       <c r="AQ29" t="n">
-        <v>18.10915848119032</v>
+        <v>36.9631799641088</v>
       </c>
       <c r="AR29" t="n">
-        <v>27.97317607512516</v>
+        <v>46.31236688708636</v>
       </c>
       <c r="AS29" t="n">
-        <v>21.36855388874672</v>
+        <v>24.26915723930062</v>
       </c>
       <c r="AT29" t="n">
-        <v>27.67764764484969</v>
+        <v>7.898334447391527</v>
       </c>
       <c r="AU29" t="n">
-        <v>14.9813614020425</v>
+        <v>41.70408347126047</v>
       </c>
       <c r="AV29" t="n">
-        <v>37.60141395380727</v>
+        <v>12.28062596075907</v>
       </c>
       <c r="AW29" t="n">
-        <v>12.06958574937956</v>
+        <v>25.3615554099498</v>
       </c>
       <c r="AX29" t="n">
-        <v>23.67119545886377</v>
+        <v>17.07069078209046</v>
       </c>
     </row>
     <row r="30">
@@ -4949,148 +4949,148 @@
         <v>5</v>
       </c>
       <c r="C30" t="n">
-        <v>2.279320402724223</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>2.649679092581698</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>10.2909114532283</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>1.956507318183083</v>
+        <v>6.106515273408498</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>7.382334113832966</v>
+        <v>9.26016670259008</v>
       </c>
       <c r="I30" t="n">
-        <v>21.12155335007214</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>7.198178224629145</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>31.09714824130801</v>
+        <v>28.5438997070188</v>
       </c>
       <c r="L30" t="n">
-        <v>12.16190127033381</v>
+        <v>17.11472850530989</v>
       </c>
       <c r="M30" t="n">
-        <v>16.62103068474275</v>
+        <v>8.477389735511199</v>
       </c>
       <c r="N30" t="n">
-        <v>83.90127386414727</v>
+        <v>2.297765813263087</v>
       </c>
       <c r="O30" t="n">
-        <v>16.88349501081942</v>
+        <v>8.477471893788524</v>
       </c>
       <c r="P30" t="n">
-        <v>47.70324781681403</v>
+        <v>44.61086821765604</v>
       </c>
       <c r="Q30" t="n">
-        <v>26.16881831718035</v>
+        <v>17.59857065693796</v>
       </c>
       <c r="R30" t="n">
-        <v>23.75696068118426</v>
+        <v>47.72576855736272</v>
       </c>
       <c r="S30" t="n">
-        <v>49.85129099444526</v>
+        <v>4.948103359887209</v>
       </c>
       <c r="T30" t="n">
-        <v>21.94777302318958</v>
+        <v>34.6237692248726</v>
       </c>
       <c r="U30" t="n">
-        <v>15.80538006294271</v>
+        <v>8.562770699607675</v>
       </c>
       <c r="V30" t="n">
-        <v>128.5506564809175</v>
+        <v>24.64334753618924</v>
       </c>
       <c r="W30" t="n">
-        <v>23.32438719708454</v>
+        <v>18.31097937608148</v>
       </c>
       <c r="X30" t="n">
-        <v>10.78746654167164</v>
+        <v>19.96319896123297</v>
       </c>
       <c r="Y30" t="n">
-        <v>14.37032654014822</v>
+        <v>36.4490190480433</v>
       </c>
       <c r="Z30" t="n">
-        <v>15.58071545633791</v>
+        <v>23.65791645955403</v>
       </c>
       <c r="AA30" t="n">
-        <v>12.67436363678478</v>
+        <v>14.13579594529269</v>
       </c>
       <c r="AB30" t="n">
-        <v>45.91440365788052</v>
+        <v>17.20181356451281</v>
       </c>
       <c r="AC30" t="n">
-        <v>19.70455666177445</v>
+        <v>21.43222421793138</v>
       </c>
       <c r="AD30" t="n">
-        <v>13.26852457919496</v>
+        <v>13.75385216936771</v>
       </c>
       <c r="AE30" t="n">
-        <v>15.96974187127462</v>
+        <v>13.86375321180294</v>
       </c>
       <c r="AF30" t="n">
-        <v>16.56851795562099</v>
+        <v>17.6616209322295</v>
       </c>
       <c r="AG30" t="n">
-        <v>10.7164883953096</v>
+        <v>12.08372906896216</v>
       </c>
       <c r="AH30" t="n">
-        <v>20.28358338550776</v>
+        <v>5.571702476216235</v>
       </c>
       <c r="AI30" t="n">
-        <v>9.344700339202793</v>
+        <v>11.30873489204633</v>
       </c>
       <c r="AJ30" t="n">
-        <v>11.15752203777918</v>
+        <v>9.270280464355638</v>
       </c>
       <c r="AK30" t="n">
-        <v>7.308817931800981</v>
+        <v>7.12561224830715</v>
       </c>
       <c r="AL30" t="n">
-        <v>2.708049890342027</v>
+        <v>3.039158153570335</v>
       </c>
       <c r="AM30" t="n">
-        <v>9.853514493610032</v>
+        <v>4.318739293348901</v>
       </c>
       <c r="AN30" t="n">
-        <v>5.459863643171476</v>
+        <v>5.38394405985963</v>
       </c>
       <c r="AO30" t="n">
-        <v>4.695950409797727</v>
+        <v>3.999514809908569</v>
       </c>
       <c r="AP30" t="n">
-        <v>2.594426832686164</v>
+        <v>3.955850292367085</v>
       </c>
       <c r="AQ30" t="n">
-        <v>5.629821911102299</v>
+        <v>4.060745322183521</v>
       </c>
       <c r="AR30" t="n">
-        <v>1.892368868495778</v>
+        <v>2.475623944692734</v>
       </c>
       <c r="AS30" t="n">
-        <v>2.00109195447958</v>
+        <v>4.624437787827993</v>
       </c>
       <c r="AT30" t="n">
-        <v>4.378842676044795</v>
+        <v>1.736016405959888</v>
       </c>
       <c r="AU30" t="n">
-        <v>1.291590097662781</v>
+        <v>5.203792176429495</v>
       </c>
       <c r="AV30" t="n">
-        <v>3.779385799351455</v>
+        <v>1.15615523383705</v>
       </c>
       <c r="AW30" t="n">
-        <v>2.105519481317232</v>
+        <v>4.42335860516275</v>
       </c>
       <c r="AX30" t="n">
-        <v>0.9884170557790105</v>
+        <v>2.509517003400573</v>
       </c>
     </row>
     <row r="31">
@@ -5101,148 +5101,148 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>24.44575083339805</v>
       </c>
       <c r="D31" t="n">
-        <v>3.960913114639578</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>33.84918580975805</v>
+        <v>3.890155814617067</v>
       </c>
       <c r="F31" t="n">
-        <v>18.93002763794336</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>14.91904294224118</v>
+        <v>8.11852263658319</v>
       </c>
       <c r="I31" t="n">
-        <v>21.17712996828432</v>
+        <v>40.34544133986192</v>
       </c>
       <c r="J31" t="n">
-        <v>45.86959047399026</v>
+        <v>29.48485231237963</v>
       </c>
       <c r="K31" t="n">
-        <v>40.43891750332902</v>
+        <v>29.59761727469976</v>
       </c>
       <c r="L31" t="n">
-        <v>20.63393204613227</v>
+        <v>4.991451974965344</v>
       </c>
       <c r="M31" t="n">
-        <v>80.26821363523928</v>
+        <v>42.02816242004815</v>
       </c>
       <c r="N31" t="n">
-        <v>63.54343605010758</v>
+        <v>68.25561188130838</v>
       </c>
       <c r="O31" t="n">
-        <v>53.72349847652672</v>
+        <v>97.48077516639862</v>
       </c>
       <c r="P31" t="n">
-        <v>7.781916281040947</v>
+        <v>17.36655137804868</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.692298702228648</v>
+        <v>14.9537666139227</v>
       </c>
       <c r="R31" t="n">
-        <v>124.1074689976796</v>
+        <v>0.3386974570390962</v>
       </c>
       <c r="S31" t="n">
-        <v>35.97053076208162</v>
+        <v>33.79303644776821</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>33.34074223502315</v>
       </c>
       <c r="U31" t="n">
-        <v>36.06711586820344</v>
+        <v>8.316281313199394</v>
       </c>
       <c r="V31" t="n">
-        <v>46.18742683352819</v>
+        <v>35.13812707198865</v>
       </c>
       <c r="W31" t="n">
-        <v>13.89057968063949</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>11.18620123600786</v>
+        <v>0.409850771057509</v>
       </c>
       <c r="Y31" t="n">
-        <v>4.815264197427874</v>
+        <v>57.4304761635861</v>
       </c>
       <c r="Z31" t="n">
-        <v>22.64574719226264</v>
+        <v>19.71319219449818</v>
       </c>
       <c r="AA31" t="n">
-        <v>0</v>
+        <v>2.603956489999628</v>
       </c>
       <c r="AB31" t="n">
-        <v>0</v>
+        <v>15.27094798028082</v>
       </c>
       <c r="AC31" t="n">
-        <v>12.06404369635086</v>
+        <v>6.06408135124377</v>
       </c>
       <c r="AD31" t="n">
-        <v>49.72771575933132</v>
+        <v>14.91178650479394</v>
       </c>
       <c r="AE31" t="n">
-        <v>8.73053969700722</v>
+        <v>21.37586834247602</v>
       </c>
       <c r="AF31" t="n">
-        <v>3.646630673647926</v>
+        <v>2.832353159229742</v>
       </c>
       <c r="AG31" t="n">
-        <v>17.14903692946653</v>
+        <v>10.65412383650313</v>
       </c>
       <c r="AH31" t="n">
-        <v>0.8551417752439538</v>
+        <v>1.700740439357322</v>
       </c>
       <c r="AI31" t="n">
-        <v>14.04746719198189</v>
+        <v>10.49747092737667</v>
       </c>
       <c r="AJ31" t="n">
-        <v>2.600219735345432</v>
+        <v>4.343045227819733</v>
       </c>
       <c r="AK31" t="n">
-        <v>6.074230247043368</v>
+        <v>0.07463893962775847</v>
       </c>
       <c r="AL31" t="n">
-        <v>6.655265858855095</v>
+        <v>43.02362853391311</v>
       </c>
       <c r="AM31" t="n">
-        <v>3.715221147015519</v>
+        <v>1.192864671591003</v>
       </c>
       <c r="AN31" t="n">
         <v>0</v>
       </c>
       <c r="AO31" t="n">
-        <v>4.10346027940743</v>
+        <v>5.318620699095616</v>
       </c>
       <c r="AP31" t="n">
-        <v>3.002394502284256</v>
+        <v>21.3974545093688</v>
       </c>
       <c r="AQ31" t="n">
-        <v>8.403809225333134</v>
+        <v>0</v>
       </c>
       <c r="AR31" t="n">
-        <v>7.959236576407356</v>
+        <v>0</v>
       </c>
       <c r="AS31" t="n">
-        <v>2.198850369395077</v>
+        <v>7.871453308008074</v>
       </c>
       <c r="AT31" t="n">
-        <v>12.29674716045732</v>
+        <v>5.549784328164989</v>
       </c>
       <c r="AU31" t="n">
-        <v>0</v>
+        <v>4.041050602751723</v>
       </c>
       <c r="AV31" t="n">
-        <v>15.01387249680196</v>
+        <v>13.6164769971573</v>
       </c>
       <c r="AW31" t="n">
-        <v>7.207195024760031</v>
+        <v>18.03014218181234</v>
       </c>
       <c r="AX31" t="n">
-        <v>17.31396522012873</v>
+        <v>10.59543415190538</v>
       </c>
     </row>
   </sheetData>
